--- a/WpfAppLot/Database/lotto.xlsx
+++ b/WpfAppLot/Database/lotto.xlsx
@@ -457,11 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L275"/>
+  <dimension ref="A1:L276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K275"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252:XFD276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -542,16 +541,16 @@
       <c r="J2" s="2">
         <v>3.253333333</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <f>SUM(C2:G2)</f>
         <v>117</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="4">
         <f>SUM(H2:I2)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -616,16 +615,16 @@
       <c r="I4" s="5">
         <v>5</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -690,11 +689,11 @@
       <c r="I6" s="5">
         <v>8</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -727,16 +726,16 @@
       <c r="I7" s="5">
         <v>5</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -773,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -810,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -875,11 +874,11 @@
       <c r="I11" s="5">
         <v>7</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -915,11 +914,11 @@
       <c r="J12" s="4">
         <v>3</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -955,16 +954,16 @@
       <c r="J13" s="4">
         <v>5</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1035,11 +1034,11 @@
       <c r="J15" s="4">
         <v>3</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -1075,11 +1074,11 @@
       <c r="J16" s="4">
         <v>2</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1115,11 +1114,11 @@
       <c r="J17" s="4">
         <v>3</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -1155,16 +1154,16 @@
       <c r="J18" s="4">
         <v>3</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1235,16 +1234,16 @@
       <c r="J20" s="4">
         <v>3</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1315,11 +1314,11 @@
       <c r="J22" s="4">
         <v>2</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -1355,11 +1354,11 @@
       <c r="J23" s="4">
         <v>3</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1395,11 +1394,11 @@
       <c r="J24" s="4">
         <v>3</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="4">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -1435,11 +1434,11 @@
       <c r="J25" s="4">
         <v>3</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -1475,11 +1474,11 @@
       <c r="J26" s="4">
         <v>5</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -1515,16 +1514,16 @@
       <c r="J27" s="4">
         <v>4</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="4">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1595,16 +1594,16 @@
       <c r="J29" s="4">
         <v>3</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="4">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1675,11 +1674,11 @@
       <c r="J31" s="4">
         <v>3</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="4">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -1715,16 +1714,16 @@
       <c r="J32" s="4">
         <v>4</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="4">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1915,11 +1914,11 @@
       <c r="J37" s="4">
         <v>3</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="4">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1955,11 +1954,11 @@
       <c r="J38" s="4">
         <v>1</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="4">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -1995,11 +1994,11 @@
       <c r="J39" s="4">
         <v>2</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="4">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -2035,11 +2034,11 @@
       <c r="J40" s="4">
         <v>3</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="4">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -2075,11 +2074,11 @@
       <c r="J41" s="4">
         <v>5</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="4">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -2115,11 +2114,11 @@
       <c r="J42" s="4">
         <v>4</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="4">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -2155,16 +2154,16 @@
       <c r="J43" s="4">
         <v>2</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="4">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2235,11 +2234,11 @@
       <c r="J45" s="4">
         <v>4</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="4">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -2275,16 +2274,16 @@
       <c r="J46" s="4">
         <v>4</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="4">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2355,11 +2354,11 @@
       <c r="J48" s="4">
         <v>3</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="4">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -2395,11 +2394,11 @@
       <c r="J49" s="4">
         <v>5</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="4">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -2435,11 +2434,11 @@
       <c r="J50" s="4">
         <v>3</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="4">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -2475,11 +2474,11 @@
       <c r="J51" s="4">
         <v>2</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="4">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2515,11 +2514,11 @@
       <c r="J52" s="4">
         <v>3</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="4">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -2555,11 +2554,11 @@
       <c r="J53" s="4">
         <v>4</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="4">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -2595,11 +2594,11 @@
       <c r="J54" s="4">
         <v>4</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="4">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -2635,16 +2634,16 @@
       <c r="J55" s="4">
         <v>3</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="4">
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -2715,11 +2714,11 @@
       <c r="J57" s="4">
         <v>4</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="4">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -2755,11 +2754,11 @@
       <c r="J58" s="4">
         <v>2</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="4">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -2795,11 +2794,11 @@
       <c r="J59" s="4">
         <v>3</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="4">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -2835,11 +2834,11 @@
       <c r="J60" s="4">
         <v>4</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="4">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -2875,16 +2874,16 @@
       <c r="J61" s="4">
         <v>1</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="4">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3115,11 +3114,11 @@
       <c r="J67" s="4">
         <v>3</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="4">
         <f t="shared" ref="K67:K130" si="2">SUM(C67:G67)</f>
         <v>113</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="4">
         <f t="shared" ref="L67:L130" si="3">SUM(H67:I67)</f>
         <v>9</v>
       </c>
@@ -3155,11 +3154,11 @@
       <c r="J68" s="4">
         <v>4</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="4">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -3195,16 +3194,16 @@
       <c r="J69" s="4">
         <v>3</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="4">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L69" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -3275,11 +3274,11 @@
       <c r="J71" s="4">
         <v>3</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="4">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L71" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -3315,11 +3314,11 @@
       <c r="J72" s="4">
         <v>4</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="4">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L72" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -3355,11 +3354,11 @@
       <c r="J73" s="4">
         <v>3</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="4">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -3395,11 +3394,11 @@
       <c r="J74" s="4">
         <v>3</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="4">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L74" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -3435,11 +3434,11 @@
       <c r="J75" s="4">
         <v>4</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="4">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L75" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -3475,16 +3474,16 @@
       <c r="J76" s="4">
         <v>3</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="4">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="L76" s="2">
+      <c r="L76" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -3555,11 +3554,11 @@
       <c r="J78" s="4">
         <v>2</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="4">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="L78" s="2">
+      <c r="L78" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -3595,16 +3594,16 @@
       <c r="J79" s="4">
         <v>4</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="4">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L79" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -3675,16 +3674,16 @@
       <c r="J81" s="4">
         <v>3</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="4">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="L81" s="2">
+      <c r="L81" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -3755,11 +3754,11 @@
       <c r="J83" s="4">
         <v>4</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="4">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="L83" s="2">
+      <c r="L83" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -3795,16 +3794,16 @@
       <c r="J84" s="4">
         <v>3</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="4">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="L84" s="2">
+      <c r="L84" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -3844,7 +3843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -3915,11 +3914,11 @@
       <c r="J87" s="4">
         <v>3</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87" s="4">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="L87" s="2">
+      <c r="L87" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -3955,16 +3954,16 @@
       <c r="J88" s="4">
         <v>4</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="4">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="L88" s="2">
+      <c r="L88" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -4035,11 +4034,11 @@
       <c r="J90" s="4">
         <v>2</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="4">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="L90" s="2">
+      <c r="L90" s="4">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -4075,11 +4074,11 @@
       <c r="J91" s="4">
         <v>4</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="4">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="L91" s="2">
+      <c r="L91" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -4115,11 +4114,11 @@
       <c r="J92" s="4">
         <v>4</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="4">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="L92" s="2">
+      <c r="L92" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -4155,11 +4154,11 @@
       <c r="J93" s="4">
         <v>2</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="4">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="L93" s="2">
+      <c r="L93" s="4">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
@@ -4195,11 +4194,11 @@
       <c r="J94" s="4">
         <v>2</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="4">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="L94" s="2">
+      <c r="L94" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -4235,11 +4234,11 @@
       <c r="J95" s="4">
         <v>3</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K95" s="4">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="L95" s="2">
+      <c r="L95" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -4275,16 +4274,16 @@
       <c r="J96" s="4">
         <v>5</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K96" s="4">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="L96" s="2">
+      <c r="L96" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -4355,11 +4354,11 @@
       <c r="J98" s="4">
         <v>3</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98" s="4">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="L98" s="2">
+      <c r="L98" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -4395,11 +4394,11 @@
       <c r="J99" s="4">
         <v>5</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="4">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="L99" s="2">
+      <c r="L99" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -4435,11 +4434,11 @@
       <c r="J100" s="4">
         <v>4</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100" s="4">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="L100" s="2">
+      <c r="L100" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4475,11 +4474,11 @@
       <c r="J101" s="4">
         <v>3</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101" s="4">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="L101" s="2">
+      <c r="L101" s="4">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -4515,11 +4514,11 @@
       <c r="J102" s="4">
         <v>4</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102" s="4">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="L102" s="2">
+      <c r="L102" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -4555,16 +4554,16 @@
       <c r="J103" s="4">
         <v>5</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103" s="4">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="L103" s="2">
+      <c r="L103" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -4675,16 +4674,16 @@
       <c r="J106" s="4">
         <v>2</v>
       </c>
-      <c r="K106" s="2">
+      <c r="K106" s="4">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="L106" s="2">
+      <c r="L106" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -4755,16 +4754,16 @@
       <c r="J108" s="4">
         <v>4</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108" s="4">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="L108" s="2">
+      <c r="L108" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -4804,7 +4803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -4875,11 +4874,11 @@
       <c r="J111" s="4">
         <v>4</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111" s="4">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="L111" s="2">
+      <c r="L111" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4915,16 +4914,16 @@
       <c r="J112" s="4">
         <v>3</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112" s="4">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="L112" s="2">
+      <c r="L112" s="4">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -4995,11 +4994,11 @@
       <c r="J114" s="4">
         <v>4</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114" s="4">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="L114" s="2">
+      <c r="L114" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -5035,11 +5034,11 @@
       <c r="J115" s="4">
         <v>1</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115" s="4">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="L115" s="2">
+      <c r="L115" s="4">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
@@ -5075,11 +5074,11 @@
       <c r="J116" s="4">
         <v>2</v>
       </c>
-      <c r="K116" s="2">
+      <c r="K116" s="4">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="L116" s="2">
+      <c r="L116" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -5115,16 +5114,16 @@
       <c r="J117" s="4">
         <v>4</v>
       </c>
-      <c r="K117" s="2">
+      <c r="K117" s="4">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="L117" s="2">
+      <c r="L117" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -5195,16 +5194,16 @@
       <c r="J119" s="4">
         <v>2</v>
       </c>
-      <c r="K119" s="2">
+      <c r="K119" s="4">
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="L119" s="2">
+      <c r="L119" s="4">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -5315,16 +5314,16 @@
       <c r="J122" s="4">
         <v>3</v>
       </c>
-      <c r="K122" s="2">
+      <c r="K122" s="4">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="L122" s="2">
+      <c r="L122" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -5395,11 +5394,11 @@
       <c r="J124" s="4">
         <v>5</v>
       </c>
-      <c r="K124" s="2">
+      <c r="K124" s="4">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="L124" s="2">
+      <c r="L124" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5435,11 +5434,11 @@
       <c r="J125" s="4">
         <v>4</v>
       </c>
-      <c r="K125" s="2">
+      <c r="K125" s="4">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="L125" s="2">
+      <c r="L125" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -5475,16 +5474,16 @@
       <c r="J126" s="4">
         <v>2</v>
       </c>
-      <c r="K126" s="2">
+      <c r="K126" s="4">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="L126" s="2">
+      <c r="L126" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -5524,7 +5523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -5715,16 +5714,16 @@
       <c r="J132" s="4">
         <v>4</v>
       </c>
-      <c r="K132" s="2">
+      <c r="K132" s="4">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
-      <c r="L132" s="2">
+      <c r="L132" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -5795,11 +5794,11 @@
       <c r="J134" s="4">
         <v>4</v>
       </c>
-      <c r="K134" s="2">
+      <c r="K134" s="4">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="L134" s="2">
+      <c r="L134" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -5835,11 +5834,11 @@
       <c r="J135" s="4">
         <v>3</v>
       </c>
-      <c r="K135" s="2">
+      <c r="K135" s="4">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="L135" s="2">
+      <c r="L135" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
@@ -5875,11 +5874,11 @@
       <c r="J136" s="4">
         <v>1</v>
       </c>
-      <c r="K136" s="2">
+      <c r="K136" s="4">
         <f t="shared" si="4"/>
         <v>139</v>
       </c>
-      <c r="L136" s="2">
+      <c r="L136" s="4">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -5915,11 +5914,11 @@
       <c r="J137" s="4">
         <v>4</v>
       </c>
-      <c r="K137" s="2">
+      <c r="K137" s="4">
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
-      <c r="L137" s="2">
+      <c r="L137" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -5955,11 +5954,11 @@
       <c r="J138" s="4">
         <v>2</v>
       </c>
-      <c r="K138" s="2">
+      <c r="K138" s="4">
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
-      <c r="L138" s="2">
+      <c r="L138" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -5995,16 +5994,16 @@
       <c r="J139" s="4">
         <v>4</v>
       </c>
-      <c r="K139" s="2">
+      <c r="K139" s="4">
         <f t="shared" si="4"/>
         <v>111</v>
       </c>
-      <c r="L139" s="2">
+      <c r="L139" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -6075,11 +6074,11 @@
       <c r="J141" s="4">
         <v>4</v>
       </c>
-      <c r="K141" s="2">
+      <c r="K141" s="4">
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
-      <c r="L141" s="2">
+      <c r="L141" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -6115,11 +6114,11 @@
       <c r="J142" s="4">
         <v>3</v>
       </c>
-      <c r="K142" s="2">
+      <c r="K142" s="4">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="L142" s="2">
+      <c r="L142" s="4">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -6155,16 +6154,16 @@
       <c r="J143" s="4">
         <v>3</v>
       </c>
-      <c r="K143" s="2">
+      <c r="K143" s="4">
         <f t="shared" si="4"/>
         <v>157</v>
       </c>
-      <c r="L143" s="2">
+      <c r="L143" s="4">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -6235,11 +6234,11 @@
       <c r="J145" s="4">
         <v>4</v>
       </c>
-      <c r="K145" s="2">
+      <c r="K145" s="4">
         <f t="shared" si="4"/>
         <v>127</v>
       </c>
-      <c r="L145" s="2">
+      <c r="L145" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
@@ -6275,16 +6274,16 @@
       <c r="J146" s="4">
         <v>2</v>
       </c>
-      <c r="K146" s="2">
+      <c r="K146" s="4">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="L146" s="2">
+      <c r="L146" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -6355,11 +6354,11 @@
       <c r="J148" s="4">
         <v>4</v>
       </c>
-      <c r="K148" s="2">
+      <c r="K148" s="4">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="L148" s="2">
+      <c r="L148" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
@@ -6395,11 +6394,11 @@
       <c r="J149" s="4">
         <v>5</v>
       </c>
-      <c r="K149" s="2">
+      <c r="K149" s="4">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="L149" s="2">
+      <c r="L149" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -6435,16 +6434,16 @@
       <c r="J150" s="4">
         <v>4</v>
       </c>
-      <c r="K150" s="2">
+      <c r="K150" s="4">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="L150" s="2">
+      <c r="L150" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -6484,7 +6483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -6555,11 +6554,11 @@
       <c r="J153" s="4">
         <v>4</v>
       </c>
-      <c r="K153" s="2">
+      <c r="K153" s="4">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="L153" s="2">
+      <c r="L153" s="4">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -6595,11 +6594,11 @@
       <c r="J154" s="4">
         <v>3</v>
       </c>
-      <c r="K154" s="2">
+      <c r="K154" s="4">
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
-      <c r="L154" s="2">
+      <c r="L154" s="4">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -6635,11 +6634,11 @@
       <c r="J155" s="4">
         <v>3</v>
       </c>
-      <c r="K155" s="2">
+      <c r="K155" s="4">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="L155" s="2">
+      <c r="L155" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -6675,11 +6674,11 @@
       <c r="J156" s="4">
         <v>2</v>
       </c>
-      <c r="K156" s="2">
+      <c r="K156" s="4">
         <f t="shared" si="4"/>
         <v>159</v>
       </c>
-      <c r="L156" s="2">
+      <c r="L156" s="4">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
@@ -6715,11 +6714,11 @@
       <c r="J157" s="4">
         <v>3</v>
       </c>
-      <c r="K157" s="2">
+      <c r="K157" s="4">
         <f t="shared" si="4"/>
         <v>119</v>
       </c>
-      <c r="L157" s="2">
+      <c r="L157" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -6755,11 +6754,11 @@
       <c r="J158" s="4">
         <v>3</v>
       </c>
-      <c r="K158" s="2">
+      <c r="K158" s="4">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="L158" s="2">
+      <c r="L158" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -6795,16 +6794,16 @@
       <c r="J159" s="4">
         <v>1</v>
       </c>
-      <c r="K159" s="2">
+      <c r="K159" s="4">
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="L159" s="2">
+      <c r="L159" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -6875,16 +6874,16 @@
       <c r="J161" s="4">
         <v>3</v>
       </c>
-      <c r="K161" s="2">
+      <c r="K161" s="4">
         <f t="shared" si="4"/>
         <v>132</v>
       </c>
-      <c r="L161" s="2">
+      <c r="L161" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -6955,11 +6954,11 @@
       <c r="J163" s="4">
         <v>2</v>
       </c>
-      <c r="K163" s="2">
+      <c r="K163" s="4">
         <f t="shared" si="4"/>
         <v>127</v>
       </c>
-      <c r="L163" s="2">
+      <c r="L163" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -6995,16 +6994,16 @@
       <c r="J164" s="4">
         <v>3</v>
       </c>
-      <c r="K164" s="2">
+      <c r="K164" s="4">
         <f t="shared" si="4"/>
         <v>137</v>
       </c>
-      <c r="L164" s="2">
+      <c r="L164" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -7075,11 +7074,11 @@
       <c r="J166" s="4">
         <v>3</v>
       </c>
-      <c r="K166" s="2">
+      <c r="K166" s="4">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
-      <c r="L166" s="2">
+      <c r="L166" s="4">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
@@ -7115,16 +7114,16 @@
       <c r="J167" s="4">
         <v>4</v>
       </c>
-      <c r="K167" s="2">
+      <c r="K167" s="4">
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="L167" s="2">
+      <c r="L167" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -7164,7 +7163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -7235,11 +7234,11 @@
       <c r="J170" s="4">
         <v>5</v>
       </c>
-      <c r="K170" s="2">
+      <c r="K170" s="4">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="L170" s="2">
+      <c r="L170" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
@@ -7275,11 +7274,11 @@
       <c r="J171" s="4">
         <v>4</v>
       </c>
-      <c r="K171" s="2">
+      <c r="K171" s="4">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="L171" s="2">
+      <c r="L171" s="4">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -7315,11 +7314,11 @@
       <c r="J172" s="4">
         <v>3</v>
       </c>
-      <c r="K172" s="2">
+      <c r="K172" s="4">
         <f t="shared" si="4"/>
         <v>151</v>
       </c>
-      <c r="L172" s="2">
+      <c r="L172" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -7355,16 +7354,16 @@
       <c r="J173" s="4">
         <v>4</v>
       </c>
-      <c r="K173" s="2">
+      <c r="K173" s="4">
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="L173" s="2">
+      <c r="L173" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>173</v>
       </c>
@@ -7435,16 +7434,16 @@
       <c r="J175" s="4">
         <v>3</v>
       </c>
-      <c r="K175" s="2">
+      <c r="K175" s="4">
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
-      <c r="L175" s="2">
+      <c r="L175" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -7515,11 +7514,11 @@
       <c r="J177" s="4">
         <v>2</v>
       </c>
-      <c r="K177" s="2">
+      <c r="K177" s="4">
         <f t="shared" si="4"/>
         <v>149</v>
       </c>
-      <c r="L177" s="2">
+      <c r="L177" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -7555,11 +7554,11 @@
       <c r="J178" s="4">
         <v>3</v>
       </c>
-      <c r="K178" s="2">
+      <c r="K178" s="4">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="L178" s="2">
+      <c r="L178" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -7595,11 +7594,11 @@
       <c r="J179" s="4">
         <v>4</v>
       </c>
-      <c r="K179" s="2">
+      <c r="K179" s="4">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="L179" s="2">
+      <c r="L179" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -7635,11 +7634,11 @@
       <c r="J180" s="4">
         <v>3</v>
       </c>
-      <c r="K180" s="2">
+      <c r="K180" s="4">
         <f t="shared" si="4"/>
         <v>154</v>
       </c>
-      <c r="L180" s="2">
+      <c r="L180" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -7675,11 +7674,11 @@
       <c r="J181" s="4">
         <v>1</v>
       </c>
-      <c r="K181" s="2">
+      <c r="K181" s="4">
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
-      <c r="L181" s="2">
+      <c r="L181" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -7715,11 +7714,11 @@
       <c r="J182" s="4">
         <v>4</v>
       </c>
-      <c r="K182" s="2">
+      <c r="K182" s="4">
         <f t="shared" si="4"/>
         <v>159</v>
       </c>
-      <c r="L182" s="2">
+      <c r="L182" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -7755,11 +7754,11 @@
       <c r="J183" s="4">
         <v>5</v>
       </c>
-      <c r="K183" s="2">
+      <c r="K183" s="4">
         <f t="shared" si="4"/>
         <v>117</v>
       </c>
-      <c r="L183" s="2">
+      <c r="L183" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -7795,16 +7794,16 @@
       <c r="J184" s="4">
         <v>3</v>
       </c>
-      <c r="K184" s="2">
+      <c r="K184" s="4">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="L184" s="2">
+      <c r="L184" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>184</v>
       </c>
@@ -7875,11 +7874,11 @@
       <c r="J186" s="4">
         <v>4</v>
       </c>
-      <c r="K186" s="2">
+      <c r="K186" s="4">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="L186" s="2">
+      <c r="L186" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
@@ -7915,11 +7914,11 @@
       <c r="J187" s="4">
         <v>3</v>
       </c>
-      <c r="K187" s="2">
+      <c r="K187" s="4">
         <f t="shared" si="4"/>
         <v>107</v>
       </c>
-      <c r="L187" s="2">
+      <c r="L187" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -7955,11 +7954,11 @@
       <c r="J188" s="4">
         <v>2</v>
       </c>
-      <c r="K188" s="2">
+      <c r="K188" s="4">
         <f t="shared" si="4"/>
         <v>156</v>
       </c>
-      <c r="L188" s="2">
+      <c r="L188" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -7995,11 +7994,11 @@
       <c r="J189" s="4">
         <v>2</v>
       </c>
-      <c r="K189" s="2">
+      <c r="K189" s="4">
         <f t="shared" si="4"/>
         <v>153</v>
       </c>
-      <c r="L189" s="2">
+      <c r="L189" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
@@ -8035,16 +8034,16 @@
       <c r="J190" s="4">
         <v>4</v>
       </c>
-      <c r="K190" s="2">
+      <c r="K190" s="4">
         <f t="shared" si="4"/>
         <v>109</v>
       </c>
-      <c r="L190" s="2">
+      <c r="L190" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>190</v>
       </c>
@@ -8115,11 +8114,11 @@
       <c r="J192" s="4">
         <v>5</v>
       </c>
-      <c r="K192" s="2">
+      <c r="K192" s="4">
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="L192" s="2">
+      <c r="L192" s="4">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
@@ -8155,11 +8154,11 @@
       <c r="J193" s="4">
         <v>3</v>
       </c>
-      <c r="K193" s="2">
+      <c r="K193" s="4">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="L193" s="2">
+      <c r="L193" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
@@ -8195,11 +8194,11 @@
       <c r="J194" s="4">
         <v>5</v>
       </c>
-      <c r="K194" s="2">
+      <c r="K194" s="4">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="L194" s="2">
+      <c r="L194" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -8235,16 +8234,16 @@
       <c r="J195" s="4">
         <v>5</v>
       </c>
-      <c r="K195" s="2">
+      <c r="K195" s="4">
         <f t="shared" ref="K195:K258" si="6">SUM(C195:G195)</f>
         <v>128</v>
       </c>
-      <c r="L195" s="2">
+      <c r="L195" s="4">
         <f t="shared" ref="L195:L258" si="7">SUM(H195:I195)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>195</v>
       </c>
@@ -8315,11 +8314,11 @@
       <c r="J197" s="4">
         <v>4</v>
       </c>
-      <c r="K197" s="2">
+      <c r="K197" s="4">
         <f t="shared" si="6"/>
         <v>131</v>
       </c>
-      <c r="L197" s="2">
+      <c r="L197" s="4">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
@@ -8355,11 +8354,11 @@
       <c r="J198" s="4">
         <v>2</v>
       </c>
-      <c r="K198" s="2">
+      <c r="K198" s="4">
         <f t="shared" si="6"/>
         <v>121</v>
       </c>
-      <c r="L198" s="2">
+      <c r="L198" s="4">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
@@ -8395,16 +8394,16 @@
       <c r="J199" s="4">
         <v>3</v>
       </c>
-      <c r="K199" s="2">
+      <c r="K199" s="4">
         <f t="shared" si="6"/>
         <v>149</v>
       </c>
-      <c r="L199" s="2">
+      <c r="L199" s="4">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>199</v>
       </c>
@@ -8475,11 +8474,11 @@
       <c r="J201" s="4">
         <v>4</v>
       </c>
-      <c r="K201" s="2">
+      <c r="K201" s="4">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="L201" s="2">
+      <c r="L201" s="4">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
@@ -8515,11 +8514,11 @@
       <c r="J202" s="4">
         <v>3</v>
       </c>
-      <c r="K202" s="2">
+      <c r="K202" s="4">
         <f t="shared" si="6"/>
         <v>113</v>
       </c>
-      <c r="L202" s="2">
+      <c r="L202" s="4">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
@@ -8555,11 +8554,11 @@
       <c r="J203" s="4">
         <v>4</v>
       </c>
-      <c r="K203" s="2">
+      <c r="K203" s="4">
         <f t="shared" si="6"/>
         <v>137</v>
       </c>
-      <c r="L203" s="2">
+      <c r="L203" s="4">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
@@ -8595,11 +8594,11 @@
       <c r="J204" s="4">
         <v>3</v>
       </c>
-      <c r="K204" s="2">
+      <c r="K204" s="4">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="L204" s="2">
+      <c r="L204" s="4">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
@@ -8635,11 +8634,11 @@
       <c r="J205" s="4">
         <v>2</v>
       </c>
-      <c r="K205" s="2">
+      <c r="K205" s="4">
         <f t="shared" si="6"/>
         <v>122</v>
       </c>
-      <c r="L205" s="2">
+      <c r="L205" s="4">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -8675,11 +8674,11 @@
       <c r="J206" s="4">
         <v>3</v>
       </c>
-      <c r="K206" s="2">
+      <c r="K206" s="4">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="L206" s="2">
+      <c r="L206" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -8715,16 +8714,16 @@
       <c r="J207" s="4">
         <v>5</v>
       </c>
-      <c r="K207" s="2">
+      <c r="K207" s="4">
         <f t="shared" si="6"/>
         <v>126</v>
       </c>
-      <c r="L207" s="2">
+      <c r="L207" s="4">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>207</v>
       </c>
@@ -8795,16 +8794,16 @@
       <c r="J209" s="4">
         <v>3</v>
       </c>
-      <c r="K209" s="2">
+      <c r="K209" s="4">
         <f t="shared" si="6"/>
         <v>134</v>
       </c>
-      <c r="L209" s="2">
+      <c r="L209" s="4">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>209</v>
       </c>
@@ -8844,7 +8843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>210</v>
       </c>
@@ -8915,11 +8914,11 @@
       <c r="J212" s="4">
         <v>4</v>
       </c>
-      <c r="K212" s="2">
+      <c r="K212" s="4">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="L212" s="2">
+      <c r="L212" s="4">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
@@ -8955,11 +8954,11 @@
       <c r="J213" s="4">
         <v>4</v>
       </c>
-      <c r="K213" s="2">
+      <c r="K213" s="4">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="L213" s="2">
+      <c r="L213" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
@@ -8995,11 +8994,11 @@
       <c r="J214" s="4">
         <v>2</v>
       </c>
-      <c r="K214" s="2">
+      <c r="K214" s="4">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="L214" s="2">
+      <c r="L214" s="4">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
@@ -9035,11 +9034,11 @@
       <c r="J215" s="4">
         <v>5</v>
       </c>
-      <c r="K215" s="2">
+      <c r="K215" s="4">
         <f t="shared" si="6"/>
         <v>146</v>
       </c>
-      <c r="L215" s="2">
+      <c r="L215" s="4">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -9075,16 +9074,16 @@
       <c r="J216" s="4">
         <v>3</v>
       </c>
-      <c r="K216" s="2">
+      <c r="K216" s="4">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="L216" s="2">
+      <c r="L216" s="4">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>216</v>
       </c>
@@ -9155,11 +9154,11 @@
       <c r="J218" s="4">
         <v>3</v>
       </c>
-      <c r="K218" s="2">
+      <c r="K218" s="4">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="L218" s="2">
+      <c r="L218" s="4">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
@@ -9195,11 +9194,11 @@
       <c r="J219" s="4">
         <v>3</v>
       </c>
-      <c r="K219" s="2">
+      <c r="K219" s="4">
         <f t="shared" si="6"/>
         <v>115</v>
       </c>
-      <c r="L219" s="2">
+      <c r="L219" s="4">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
@@ -9235,11 +9234,11 @@
       <c r="J220" s="4">
         <v>2</v>
       </c>
-      <c r="K220" s="2">
+      <c r="K220" s="4">
         <f t="shared" si="6"/>
         <v>121</v>
       </c>
-      <c r="L220" s="2">
+      <c r="L220" s="4">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
@@ -9275,11 +9274,11 @@
       <c r="J221" s="4">
         <v>2</v>
       </c>
-      <c r="K221" s="2">
+      <c r="K221" s="4">
         <f t="shared" si="6"/>
         <v>146</v>
       </c>
-      <c r="L221" s="2">
+      <c r="L221" s="4">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
@@ -9315,11 +9314,11 @@
       <c r="J222" s="4">
         <v>3</v>
       </c>
-      <c r="K222" s="2">
+      <c r="K222" s="4">
         <f t="shared" si="6"/>
         <v>114</v>
       </c>
-      <c r="L222" s="2">
+      <c r="L222" s="4">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
@@ -9355,11 +9354,11 @@
       <c r="J223" s="4">
         <v>3</v>
       </c>
-      <c r="K223" s="2">
+      <c r="K223" s="4">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="L223" s="2">
+      <c r="L223" s="4">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -9395,16 +9394,16 @@
       <c r="J224" s="4">
         <v>3</v>
       </c>
-      <c r="K224" s="2">
+      <c r="K224" s="4">
         <f t="shared" si="6"/>
         <v>153</v>
       </c>
-      <c r="L224" s="2">
+      <c r="L224" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>224</v>
       </c>
@@ -9475,11 +9474,11 @@
       <c r="J226" s="4">
         <v>3</v>
       </c>
-      <c r="K226" s="2">
+      <c r="K226" s="4">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="L226" s="2">
+      <c r="L226" s="4">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
@@ -9515,11 +9514,11 @@
       <c r="J227" s="4">
         <v>4</v>
       </c>
-      <c r="K227" s="2">
+      <c r="K227" s="4">
         <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="L227" s="2">
+      <c r="L227" s="4">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
@@ -9555,11 +9554,11 @@
       <c r="J228" s="4">
         <v>3</v>
       </c>
-      <c r="K228" s="2">
+      <c r="K228" s="4">
         <f t="shared" si="6"/>
         <v>112</v>
       </c>
-      <c r="L228" s="2">
+      <c r="L228" s="4">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
@@ -9595,11 +9594,11 @@
       <c r="J229" s="4">
         <v>4</v>
       </c>
-      <c r="K229" s="2">
+      <c r="K229" s="4">
         <f t="shared" si="6"/>
         <v>114</v>
       </c>
-      <c r="L229" s="2">
+      <c r="L229" s="4">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
@@ -9635,11 +9634,11 @@
       <c r="J230" s="4">
         <v>2</v>
       </c>
-      <c r="K230" s="2">
+      <c r="K230" s="4">
         <f t="shared" si="6"/>
         <v>98</v>
       </c>
-      <c r="L230" s="2">
+      <c r="L230" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -9675,16 +9674,16 @@
       <c r="J231" s="4">
         <v>4</v>
       </c>
-      <c r="K231" s="2">
+      <c r="K231" s="4">
         <f t="shared" si="6"/>
         <v>98</v>
       </c>
-      <c r="L231" s="2">
+      <c r="L231" s="4">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>231</v>
       </c>
@@ -9755,16 +9754,16 @@
       <c r="J233" s="4">
         <v>4</v>
       </c>
-      <c r="K233" s="2">
+      <c r="K233" s="4">
         <f t="shared" si="6"/>
         <v>97</v>
       </c>
-      <c r="L233" s="2">
+      <c r="L233" s="4">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>233</v>
       </c>
@@ -9835,11 +9834,11 @@
       <c r="J235" s="4">
         <v>1</v>
       </c>
-      <c r="K235" s="2">
+      <c r="K235" s="4">
         <f t="shared" si="6"/>
         <v>146</v>
       </c>
-      <c r="L235" s="2">
+      <c r="L235" s="4">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
@@ -9875,11 +9874,11 @@
       <c r="J236" s="4">
         <v>4</v>
       </c>
-      <c r="K236" s="2">
+      <c r="K236" s="4">
         <f t="shared" si="6"/>
         <v>153</v>
       </c>
-      <c r="L236" s="2">
+      <c r="L236" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -9915,11 +9914,11 @@
       <c r="J237" s="4">
         <v>0</v>
       </c>
-      <c r="K237" s="2">
+      <c r="K237" s="4">
         <f t="shared" si="6"/>
         <v>101</v>
       </c>
-      <c r="L237" s="2">
+      <c r="L237" s="4">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
@@ -9955,11 +9954,11 @@
       <c r="J238" s="4">
         <v>4</v>
       </c>
-      <c r="K238" s="2">
+      <c r="K238" s="4">
         <f t="shared" si="6"/>
         <v>144</v>
       </c>
-      <c r="L238" s="2">
+      <c r="L238" s="4">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
@@ -9992,11 +9991,11 @@
       <c r="I239" s="5">
         <v>9</v>
       </c>
-      <c r="K239" s="2">
+      <c r="K239" s="4">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
-      <c r="L239" s="2">
+      <c r="L239" s="4">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
@@ -10029,11 +10028,11 @@
       <c r="I240" s="5">
         <v>6</v>
       </c>
-      <c r="K240" s="2">
+      <c r="K240" s="4">
         <f t="shared" si="6"/>
         <v>123</v>
       </c>
-      <c r="L240" s="2">
+      <c r="L240" s="4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
@@ -10066,16 +10065,16 @@
       <c r="I241" s="5">
         <v>9</v>
       </c>
-      <c r="K241" s="2">
+      <c r="K241" s="4">
         <f t="shared" si="6"/>
         <v>127</v>
       </c>
-      <c r="L241" s="2">
+      <c r="L241" s="4">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>241</v>
       </c>
@@ -10140,11 +10139,11 @@
       <c r="I243" s="5">
         <v>10</v>
       </c>
-      <c r="K243" s="2">
+      <c r="K243" s="4">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="L243" s="2">
+      <c r="L243" s="4">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
@@ -10177,11 +10176,11 @@
       <c r="I244" s="5">
         <v>8</v>
       </c>
-      <c r="K244" s="2">
+      <c r="K244" s="4">
         <f t="shared" si="6"/>
         <v>124</v>
       </c>
-      <c r="L244" s="2">
+      <c r="L244" s="4">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
@@ -10214,16 +10213,16 @@
       <c r="I245" s="5">
         <v>6</v>
       </c>
-      <c r="K245" s="2">
+      <c r="K245" s="4">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="L245" s="2">
+      <c r="L245" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>245</v>
       </c>
@@ -10288,11 +10287,11 @@
       <c r="I247" s="5">
         <v>7</v>
       </c>
-      <c r="K247" s="2">
+      <c r="K247" s="4">
         <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="L247" s="2">
+      <c r="L247" s="4">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
@@ -10325,16 +10324,16 @@
       <c r="I248" s="5">
         <v>10</v>
       </c>
-      <c r="K248" s="2">
+      <c r="K248" s="4">
         <f t="shared" si="6"/>
         <v>152</v>
       </c>
-      <c r="L248" s="2">
+      <c r="L248" s="4">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>248</v>
       </c>
@@ -10399,16 +10398,16 @@
       <c r="I250" s="5">
         <v>4</v>
       </c>
-      <c r="K250" s="2">
+      <c r="K250" s="4">
         <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="L250" s="2">
+      <c r="L250" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>250</v>
       </c>
@@ -10473,11 +10472,11 @@
       <c r="I252" s="5">
         <v>5</v>
       </c>
-      <c r="K252" s="2">
+      <c r="K252" s="4">
         <f t="shared" si="6"/>
         <v>106</v>
       </c>
-      <c r="L252" s="2">
+      <c r="L252" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
@@ -10510,11 +10509,11 @@
       <c r="I253" s="5">
         <v>6</v>
       </c>
-      <c r="K253" s="2">
+      <c r="K253" s="4">
         <f t="shared" si="6"/>
         <v>138</v>
       </c>
-      <c r="L253" s="2">
+      <c r="L253" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -10547,11 +10546,11 @@
       <c r="I254" s="5">
         <v>8</v>
       </c>
-      <c r="K254" s="2">
+      <c r="K254" s="4">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="L254" s="2">
+      <c r="L254" s="4">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
@@ -10584,11 +10583,11 @@
       <c r="I255" s="5">
         <v>9</v>
       </c>
-      <c r="K255" s="2">
+      <c r="K255" s="4">
         <f t="shared" si="6"/>
         <v>123</v>
       </c>
-      <c r="L255" s="2">
+      <c r="L255" s="4">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
@@ -10621,11 +10620,11 @@
       <c r="I256" s="5">
         <v>4</v>
       </c>
-      <c r="K256" s="2">
+      <c r="K256" s="4">
         <f t="shared" si="6"/>
         <v>112</v>
       </c>
-      <c r="L256" s="2">
+      <c r="L256" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -10658,11 +10657,11 @@
       <c r="I257" s="5">
         <v>5</v>
       </c>
-      <c r="K257" s="2">
+      <c r="K257" s="4">
         <f t="shared" si="6"/>
         <v>153</v>
       </c>
-      <c r="L257" s="2">
+      <c r="L257" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -10695,16 +10694,16 @@
       <c r="I258" s="5">
         <v>6</v>
       </c>
-      <c r="K258" s="2">
+      <c r="K258" s="4">
         <f t="shared" si="6"/>
         <v>133</v>
       </c>
-      <c r="L258" s="2">
+      <c r="L258" s="4">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>258</v>
       </c>
@@ -10733,15 +10732,15 @@
         <v>8</v>
       </c>
       <c r="K259" s="2">
-        <f t="shared" ref="K259:K275" si="8">SUM(C259:G259)</f>
+        <f t="shared" ref="K259:K276" si="8">SUM(C259:G259)</f>
         <v>60</v>
       </c>
       <c r="L259" s="2">
-        <f t="shared" ref="L259:L275" si="9">SUM(H259:I259)</f>
+        <f t="shared" ref="L259:L276" si="9">SUM(H259:I259)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>259</v>
       </c>
@@ -10806,11 +10805,11 @@
       <c r="I261" s="5">
         <v>8</v>
       </c>
-      <c r="K261" s="2">
+      <c r="K261" s="4">
         <f t="shared" si="8"/>
         <v>132</v>
       </c>
-      <c r="L261" s="2">
+      <c r="L261" s="4">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
@@ -10843,16 +10842,16 @@
       <c r="I262" s="5">
         <v>8</v>
       </c>
-      <c r="K262" s="2">
+      <c r="K262" s="4">
         <f t="shared" si="8"/>
         <v>127</v>
       </c>
-      <c r="L262" s="2">
+      <c r="L262" s="4">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>262</v>
       </c>
@@ -10917,16 +10916,16 @@
       <c r="I264" s="5">
         <v>7</v>
       </c>
-      <c r="K264" s="2">
+      <c r="K264" s="4">
         <f t="shared" si="8"/>
         <v>140</v>
       </c>
-      <c r="L264" s="2">
+      <c r="L264" s="4">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>264</v>
       </c>
@@ -10991,16 +10990,16 @@
       <c r="I266" s="5">
         <v>5</v>
       </c>
-      <c r="K266" s="2">
+      <c r="K266" s="4">
         <f t="shared" si="8"/>
         <v>156</v>
       </c>
-      <c r="L266" s="2">
+      <c r="L266" s="4">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>266</v>
       </c>
@@ -11037,7 +11036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>267</v>
       </c>
@@ -11102,11 +11101,11 @@
       <c r="I269" s="5">
         <v>8</v>
       </c>
-      <c r="K269" s="2">
+      <c r="K269" s="4">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
-      <c r="L269" s="2">
+      <c r="L269" s="4">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
@@ -11139,16 +11138,16 @@
       <c r="I270" s="5">
         <v>2</v>
       </c>
-      <c r="K270" s="2">
+      <c r="K270" s="4">
         <f t="shared" si="8"/>
         <v>133</v>
       </c>
-      <c r="L270" s="2">
+      <c r="L270" s="4">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>270</v>
       </c>
@@ -11185,7 +11184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>271</v>
       </c>
@@ -11222,7 +11221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>272</v>
       </c>
@@ -11287,11 +11286,11 @@
       <c r="I274" s="5">
         <v>8</v>
       </c>
-      <c r="K274" s="2">
+      <c r="K274" s="4">
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-      <c r="L274" s="2">
+      <c r="L274" s="4">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
@@ -11324,24 +11323,53 @@
       <c r="I275" s="5">
         <v>7</v>
       </c>
-      <c r="K275" s="2">
+      <c r="K275" s="4">
         <f t="shared" si="8"/>
         <v>119</v>
       </c>
-      <c r="L275" s="2">
+      <c r="L275" s="4">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A276" s="6">
+        <v>275</v>
+      </c>
+      <c r="B276" s="3">
+        <v>42909</v>
+      </c>
+      <c r="C276" s="2">
+        <v>6</v>
+      </c>
+      <c r="D276" s="2">
+        <v>14</v>
+      </c>
+      <c r="E276" s="2">
+        <v>19</v>
+      </c>
+      <c r="F276" s="2">
+        <v>27</v>
+      </c>
+      <c r="G276" s="2">
+        <v>35</v>
+      </c>
+      <c r="H276" s="5">
+        <v>2</v>
+      </c>
+      <c r="I276" s="5">
+        <v>4</v>
+      </c>
+      <c r="K276" s="4">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="L276" s="4">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="K1:K275">
-    <filterColumn colId="0">
-      <customFilters and="1">
-        <customFilter operator="greaterThanOrEqual" val="96"/>
-        <customFilter operator="lessThanOrEqual" val="159"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="B279:I302">
     <sortCondition descending="1" ref="B279:B302"/>
   </sortState>

--- a/WpfAppLot/Database/lotto.xlsx
+++ b/WpfAppLot/Database/lotto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Class\Visual Studio\Projects\MVC_AutoMachine\WpfAppLot\WpfAppLot\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCODE\repo\WpfAppLot\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8766ABCF-F26C-4E95-A50A-A36116BB27BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$275</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,19 +69,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -456,23 +457,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L276"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252:XFD276"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.125" style="2"/>
-    <col min="8" max="9" width="9.125" style="5"/>
-    <col min="10" max="16384" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="2"/>
+    <col min="8" max="9" width="9.140625" style="5"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -510,7 +511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -542,7 +543,7 @@
         <v>3.253333333</v>
       </c>
       <c r="K2" s="4">
-        <f>SUM(C2:G2)</f>
+        <f t="shared" ref="K2:K33" si="0">SUM(C2:G2)</f>
         <v>117</v>
       </c>
       <c r="L2" s="4">
@@ -550,7 +551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -579,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K66" si="0">SUM(C3:G3)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="L3" s="2">
@@ -587,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -624,7 +625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -661,7 +662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -698,7 +699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -735,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -772,7 +773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -809,7 +810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -846,7 +847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -883,7 +884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -923,7 +924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -963,7 +964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1723,7 +1724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K34:K66" si="2">SUM(C34:G34)</f>
         <v>58</v>
       </c>
       <c r="L34" s="2">
@@ -1803,7 +1804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>4</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="L35" s="2">
@@ -1843,7 +1844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="L36" s="2">
@@ -1883,7 +1884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="L37" s="4">
@@ -1923,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="L38" s="4">
@@ -1963,7 +1964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1995,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="L39" s="4">
@@ -2003,7 +2004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="L40" s="4">
@@ -2043,7 +2044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="L41" s="4">
@@ -2083,7 +2084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>4</v>
       </c>
       <c r="K42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="L42" s="4">
@@ -2123,7 +2124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="K43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="L43" s="4">
@@ -2163,7 +2164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>4</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="L44" s="2">
@@ -2203,7 +2204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>4</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="L45" s="4">
@@ -2243,7 +2244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>4</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="L46" s="4">
@@ -2283,7 +2284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="L47" s="2">
@@ -2323,7 +2324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>3</v>
       </c>
       <c r="K48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="L48" s="4">
@@ -2363,7 +2364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>5</v>
       </c>
       <c r="K49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="L49" s="4">
@@ -2403,7 +2404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2435,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="K50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="L50" s="4">
@@ -2443,7 +2444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="L51" s="4">
@@ -2483,7 +2484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>3</v>
       </c>
       <c r="K52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="L52" s="4">
@@ -2523,7 +2524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>4</v>
       </c>
       <c r="K53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="L53" s="4">
@@ -2563,7 +2564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="K54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="L54" s="4">
@@ -2603,7 +2604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="K55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="L55" s="4">
@@ -2643,7 +2644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -2675,7 +2676,7 @@
         <v>4</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="L56" s="2">
@@ -2683,7 +2684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>4</v>
       </c>
       <c r="K57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="L57" s="4">
@@ -2723,7 +2724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="L58" s="4">
@@ -2763,7 +2764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="L59" s="4">
@@ -2803,7 +2804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>4</v>
       </c>
       <c r="K60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="L60" s="4">
@@ -2843,7 +2844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="L61" s="4">
@@ -2883,7 +2884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>4</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="L62" s="2">
@@ -2923,7 +2924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="L63" s="2">
@@ -2963,7 +2964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>5</v>
       </c>
       <c r="K64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="L64" s="2">
@@ -3003,7 +3004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>5</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="L65" s="2">
@@ -3043,7 +3044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="L66" s="2">
@@ -3083,7 +3084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -3115,15 +3116,15 @@
         <v>3</v>
       </c>
       <c r="K67" s="4">
-        <f t="shared" ref="K67:K130" si="2">SUM(C67:G67)</f>
+        <f t="shared" ref="K67:K130" si="3">SUM(C67:G67)</f>
         <v>113</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" ref="L67:L130" si="3">SUM(H67:I67)</f>
+        <f t="shared" ref="L67:L130" si="4">SUM(H67:I67)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -3155,15 +3156,15 @@
         <v>4</v>
       </c>
       <c r="K68" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -3195,15 +3196,15 @@
         <v>3</v>
       </c>
       <c r="K69" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -3235,15 +3236,15 @@
         <v>3</v>
       </c>
       <c r="K70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="L70" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -3275,15 +3276,15 @@
         <v>3</v>
       </c>
       <c r="K71" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -3315,15 +3316,15 @@
         <v>4</v>
       </c>
       <c r="K72" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -3355,15 +3356,15 @@
         <v>3</v>
       </c>
       <c r="K73" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -3395,15 +3396,15 @@
         <v>3</v>
       </c>
       <c r="K74" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
       <c r="L74" s="4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -3435,15 +3436,15 @@
         <v>4</v>
       </c>
       <c r="K75" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>157</v>
       </c>
       <c r="L75" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -3475,15 +3476,15 @@
         <v>3</v>
       </c>
       <c r="K76" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="L76" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -3515,15 +3516,15 @@
         <v>4</v>
       </c>
       <c r="K77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="L77" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -3555,15 +3556,15 @@
         <v>2</v>
       </c>
       <c r="K78" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="L78" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -3595,15 +3596,15 @@
         <v>4</v>
       </c>
       <c r="K79" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="L79" s="4">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -3635,15 +3636,15 @@
         <v>2</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="L80" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -3675,15 +3676,15 @@
         <v>3</v>
       </c>
       <c r="K81" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="L81" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -3715,15 +3716,15 @@
         <v>2</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -3755,15 +3756,15 @@
         <v>4</v>
       </c>
       <c r="K83" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="L83" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -3795,15 +3796,15 @@
         <v>3</v>
       </c>
       <c r="K84" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="L84" s="4">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -3835,15 +3836,15 @@
         <v>3</v>
       </c>
       <c r="K85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="L85" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -3875,15 +3876,15 @@
         <v>2</v>
       </c>
       <c r="K86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="L86" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -3915,15 +3916,15 @@
         <v>3</v>
       </c>
       <c r="K87" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="L87" s="4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -3955,15 +3956,15 @@
         <v>4</v>
       </c>
       <c r="K88" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="L88" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -3995,15 +3996,15 @@
         <v>3</v>
       </c>
       <c r="K89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>167</v>
       </c>
       <c r="L89" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -4035,15 +4036,15 @@
         <v>2</v>
       </c>
       <c r="K90" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
       <c r="L90" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -4075,15 +4076,15 @@
         <v>4</v>
       </c>
       <c r="K91" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="L91" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -4115,15 +4116,15 @@
         <v>4</v>
       </c>
       <c r="K92" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="L92" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -4155,15 +4156,15 @@
         <v>2</v>
       </c>
       <c r="K93" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="L93" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -4195,15 +4196,15 @@
         <v>2</v>
       </c>
       <c r="K94" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="L94" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -4235,15 +4236,15 @@
         <v>3</v>
       </c>
       <c r="K95" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="L95" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -4275,15 +4276,15 @@
         <v>5</v>
       </c>
       <c r="K96" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="L96" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -4315,15 +4316,15 @@
         <v>2</v>
       </c>
       <c r="K97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="L97" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -4355,15 +4356,15 @@
         <v>3</v>
       </c>
       <c r="K98" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="L98" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -4395,15 +4396,15 @@
         <v>5</v>
       </c>
       <c r="K99" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="L99" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -4435,15 +4436,15 @@
         <v>4</v>
       </c>
       <c r="K100" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="L100" s="4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -4475,15 +4476,15 @@
         <v>3</v>
       </c>
       <c r="K101" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="L101" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -4515,15 +4516,15 @@
         <v>4</v>
       </c>
       <c r="K102" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="L102" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -4555,15 +4556,15 @@
         <v>5</v>
       </c>
       <c r="K103" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="L103" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -4595,15 +4596,15 @@
         <v>4</v>
       </c>
       <c r="K104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="L104" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -4635,15 +4636,15 @@
         <v>2</v>
       </c>
       <c r="K105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="L105" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -4675,15 +4676,15 @@
         <v>2</v>
       </c>
       <c r="K106" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="L106" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -4715,15 +4716,15 @@
         <v>3</v>
       </c>
       <c r="K107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="L107" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -4755,15 +4756,15 @@
         <v>4</v>
       </c>
       <c r="K108" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="L108" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -4795,15 +4796,15 @@
         <v>3</v>
       </c>
       <c r="K109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="L109" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -4835,15 +4836,15 @@
         <v>3</v>
       </c>
       <c r="K110" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>177</v>
       </c>
       <c r="L110" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -4875,15 +4876,15 @@
         <v>4</v>
       </c>
       <c r="K111" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="L111" s="4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -4915,15 +4916,15 @@
         <v>3</v>
       </c>
       <c r="K112" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="L112" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -4955,15 +4956,15 @@
         <v>3</v>
       </c>
       <c r="K113" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="L113" s="2">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -4995,15 +4996,15 @@
         <v>4</v>
       </c>
       <c r="K114" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>158</v>
       </c>
       <c r="L114" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -5035,15 +5036,15 @@
         <v>1</v>
       </c>
       <c r="K115" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="L115" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -5075,15 +5076,15 @@
         <v>2</v>
       </c>
       <c r="K116" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="L116" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -5115,15 +5116,15 @@
         <v>4</v>
       </c>
       <c r="K117" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="L117" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -5155,15 +5156,15 @@
         <v>2</v>
       </c>
       <c r="K118" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="L118" s="2">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -5195,15 +5196,15 @@
         <v>2</v>
       </c>
       <c r="K119" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="L119" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -5235,15 +5236,15 @@
         <v>5</v>
       </c>
       <c r="K120" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
       <c r="L120" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -5275,15 +5276,15 @@
         <v>4</v>
       </c>
       <c r="K121" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="L121" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -5315,15 +5316,15 @@
         <v>3</v>
       </c>
       <c r="K122" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="L122" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -5355,15 +5356,15 @@
         <v>5</v>
       </c>
       <c r="K123" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="L123" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -5395,15 +5396,15 @@
         <v>5</v>
       </c>
       <c r="K124" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="L124" s="4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -5435,15 +5436,15 @@
         <v>4</v>
       </c>
       <c r="K125" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="L125" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -5475,15 +5476,15 @@
         <v>2</v>
       </c>
       <c r="K126" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="L126" s="4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -5515,15 +5516,15 @@
         <v>4</v>
       </c>
       <c r="K127" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>186</v>
       </c>
       <c r="L127" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -5555,15 +5556,15 @@
         <v>4</v>
       </c>
       <c r="K128" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
       <c r="L128" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -5595,15 +5596,15 @@
         <v>0</v>
       </c>
       <c r="K129" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="L129" s="2">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -5635,15 +5636,15 @@
         <v>2</v>
       </c>
       <c r="K130" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
       <c r="L130" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -5675,15 +5676,15 @@
         <v>2</v>
       </c>
       <c r="K131" s="2">
-        <f t="shared" ref="K131:K194" si="4">SUM(C131:G131)</f>
+        <f t="shared" ref="K131:K194" si="5">SUM(C131:G131)</f>
         <v>82</v>
       </c>
       <c r="L131" s="2">
-        <f t="shared" ref="L131:L194" si="5">SUM(H131:I131)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" ref="L131:L194" si="6">SUM(H131:I131)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -5715,15 +5716,15 @@
         <v>4</v>
       </c>
       <c r="K132" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="L132" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -5755,15 +5756,15 @@
         <v>2</v>
       </c>
       <c r="K133" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="L133" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -5795,15 +5796,15 @@
         <v>4</v>
       </c>
       <c r="K134" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="L134" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -5835,15 +5836,15 @@
         <v>3</v>
       </c>
       <c r="K135" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="L135" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -5875,15 +5876,15 @@
         <v>1</v>
       </c>
       <c r="K136" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>139</v>
       </c>
       <c r="L136" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -5915,15 +5916,15 @@
         <v>4</v>
       </c>
       <c r="K137" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="L137" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -5955,15 +5956,15 @@
         <v>2</v>
       </c>
       <c r="K138" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="L138" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -5995,15 +5996,15 @@
         <v>4</v>
       </c>
       <c r="K139" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="L139" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -6035,15 +6036,15 @@
         <v>3</v>
       </c>
       <c r="K140" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="L140" s="2">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -6075,15 +6076,15 @@
         <v>4</v>
       </c>
       <c r="K141" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="L141" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -6115,15 +6116,15 @@
         <v>3</v>
       </c>
       <c r="K142" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="L142" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -6155,15 +6156,15 @@
         <v>3</v>
       </c>
       <c r="K143" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>157</v>
       </c>
       <c r="L143" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -6195,15 +6196,15 @@
         <v>3</v>
       </c>
       <c r="K144" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="L144" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -6235,15 +6236,15 @@
         <v>4</v>
       </c>
       <c r="K145" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="L145" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -6275,15 +6276,15 @@
         <v>2</v>
       </c>
       <c r="K146" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="L146" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -6315,15 +6316,15 @@
         <v>3</v>
       </c>
       <c r="K147" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>173</v>
       </c>
       <c r="L147" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -6355,15 +6356,15 @@
         <v>4</v>
       </c>
       <c r="K148" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="L148" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -6395,15 +6396,15 @@
         <v>5</v>
       </c>
       <c r="K149" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="L149" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -6435,15 +6436,15 @@
         <v>4</v>
       </c>
       <c r="K150" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="L150" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -6475,15 +6476,15 @@
         <v>5</v>
       </c>
       <c r="K151" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="L151" s="2">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -6515,15 +6516,15 @@
         <v>4</v>
       </c>
       <c r="K152" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="L152" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -6555,15 +6556,15 @@
         <v>4</v>
       </c>
       <c r="K153" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="L153" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -6595,15 +6596,15 @@
         <v>3</v>
       </c>
       <c r="K154" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="L154" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -6635,15 +6636,15 @@
         <v>3</v>
       </c>
       <c r="K155" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="L155" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -6675,15 +6676,15 @@
         <v>2</v>
       </c>
       <c r="K156" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>159</v>
       </c>
       <c r="L156" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -6715,15 +6716,15 @@
         <v>3</v>
       </c>
       <c r="K157" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="L157" s="4">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -6755,15 +6756,15 @@
         <v>3</v>
       </c>
       <c r="K158" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="L158" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -6795,15 +6796,15 @@
         <v>1</v>
       </c>
       <c r="K159" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
       <c r="L159" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -6835,15 +6836,15 @@
         <v>3</v>
       </c>
       <c r="K160" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>167</v>
       </c>
       <c r="L160" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -6875,15 +6876,15 @@
         <v>3</v>
       </c>
       <c r="K161" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="L161" s="4">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -6915,15 +6916,15 @@
         <v>3</v>
       </c>
       <c r="K162" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="L162" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -6955,15 +6956,15 @@
         <v>2</v>
       </c>
       <c r="K163" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="L163" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -6995,15 +6996,15 @@
         <v>3</v>
       </c>
       <c r="K164" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
       <c r="L164" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -7035,15 +7036,15 @@
         <v>2</v>
       </c>
       <c r="K165" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="L165" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -7075,15 +7076,15 @@
         <v>3</v>
       </c>
       <c r="K166" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="L166" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -7115,15 +7116,15 @@
         <v>4</v>
       </c>
       <c r="K167" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="L167" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -7155,15 +7156,15 @@
         <v>3</v>
       </c>
       <c r="K168" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="L168" s="2">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -7195,15 +7196,15 @@
         <v>4</v>
       </c>
       <c r="K169" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>188</v>
       </c>
       <c r="L169" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -7235,15 +7236,15 @@
         <v>5</v>
       </c>
       <c r="K170" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="L170" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>170</v>
       </c>
@@ -7275,15 +7276,15 @@
         <v>4</v>
       </c>
       <c r="K171" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="L171" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -7315,15 +7316,15 @@
         <v>3</v>
       </c>
       <c r="K172" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>151</v>
       </c>
       <c r="L172" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>172</v>
       </c>
@@ -7355,15 +7356,15 @@
         <v>4</v>
       </c>
       <c r="K173" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>158</v>
       </c>
       <c r="L173" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>173</v>
       </c>
@@ -7395,15 +7396,15 @@
         <v>4</v>
       </c>
       <c r="K174" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>169</v>
       </c>
       <c r="L174" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>174</v>
       </c>
@@ -7435,15 +7436,15 @@
         <v>3</v>
       </c>
       <c r="K175" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="L175" s="4">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -7475,15 +7476,15 @@
         <v>4</v>
       </c>
       <c r="K176" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="L176" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>176</v>
       </c>
@@ -7515,15 +7516,15 @@
         <v>2</v>
       </c>
       <c r="K177" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>149</v>
       </c>
       <c r="L177" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -7555,15 +7556,15 @@
         <v>3</v>
       </c>
       <c r="K178" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="L178" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>178</v>
       </c>
@@ -7595,15 +7596,15 @@
         <v>4</v>
       </c>
       <c r="K179" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="L179" s="4">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>179</v>
       </c>
@@ -7635,15 +7636,15 @@
         <v>3</v>
       </c>
       <c r="K180" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>154</v>
       </c>
       <c r="L180" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>180</v>
       </c>
@@ -7675,15 +7676,15 @@
         <v>1</v>
       </c>
       <c r="K181" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="L181" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -7715,15 +7716,15 @@
         <v>4</v>
       </c>
       <c r="K182" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>159</v>
       </c>
       <c r="L182" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>182</v>
       </c>
@@ -7755,15 +7756,15 @@
         <v>5</v>
       </c>
       <c r="K183" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>117</v>
       </c>
       <c r="L183" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>183</v>
       </c>
@@ -7795,15 +7796,15 @@
         <v>3</v>
       </c>
       <c r="K184" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="L184" s="4">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>184</v>
       </c>
@@ -7835,15 +7836,15 @@
         <v>4</v>
       </c>
       <c r="K185" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="L185" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>185</v>
       </c>
@@ -7875,15 +7876,15 @@
         <v>4</v>
       </c>
       <c r="K186" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="L186" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>186</v>
       </c>
@@ -7915,15 +7916,15 @@
         <v>3</v>
       </c>
       <c r="K187" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
       <c r="L187" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>187</v>
       </c>
@@ -7955,15 +7956,15 @@
         <v>2</v>
       </c>
       <c r="K188" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
       <c r="L188" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>188</v>
       </c>
@@ -7995,15 +7996,15 @@
         <v>2</v>
       </c>
       <c r="K189" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>153</v>
       </c>
       <c r="L189" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>189</v>
       </c>
@@ -8035,15 +8036,15 @@
         <v>4</v>
       </c>
       <c r="K190" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="L190" s="4">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>190</v>
       </c>
@@ -8075,15 +8076,15 @@
         <v>2</v>
       </c>
       <c r="K191" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="L191" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>191</v>
       </c>
@@ -8115,15 +8116,15 @@
         <v>5</v>
       </c>
       <c r="K192" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="L192" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>192</v>
       </c>
@@ -8155,15 +8156,15 @@
         <v>3</v>
       </c>
       <c r="K193" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="L193" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>193</v>
       </c>
@@ -8195,15 +8196,15 @@
         <v>5</v>
       </c>
       <c r="K194" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="L194" s="4">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>194</v>
       </c>
@@ -8235,15 +8236,15 @@
         <v>5</v>
       </c>
       <c r="K195" s="4">
-        <f t="shared" ref="K195:K258" si="6">SUM(C195:G195)</f>
+        <f t="shared" ref="K195:K258" si="7">SUM(C195:G195)</f>
         <v>128</v>
       </c>
       <c r="L195" s="4">
-        <f t="shared" ref="L195:L258" si="7">SUM(H195:I195)</f>
+        <f t="shared" ref="L195:L258" si="8">SUM(H195:I195)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>195</v>
       </c>
@@ -8275,15 +8276,15 @@
         <v>5</v>
       </c>
       <c r="K196" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>195</v>
       </c>
       <c r="L196" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>196</v>
       </c>
@@ -8315,15 +8316,15 @@
         <v>4</v>
       </c>
       <c r="K197" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>131</v>
       </c>
       <c r="L197" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>197</v>
       </c>
@@ -8355,15 +8356,15 @@
         <v>2</v>
       </c>
       <c r="K198" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="L198" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>198</v>
       </c>
@@ -8395,15 +8396,15 @@
         <v>3</v>
       </c>
       <c r="K199" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>149</v>
       </c>
       <c r="L199" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>199</v>
       </c>
@@ -8435,15 +8436,15 @@
         <v>4</v>
       </c>
       <c r="K200" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="L200" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>200</v>
       </c>
@@ -8475,15 +8476,15 @@
         <v>4</v>
       </c>
       <c r="K201" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="L201" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>201</v>
       </c>
@@ -8515,15 +8516,15 @@
         <v>3</v>
       </c>
       <c r="K202" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
       <c r="L202" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>202</v>
       </c>
@@ -8555,15 +8556,15 @@
         <v>4</v>
       </c>
       <c r="K203" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>137</v>
       </c>
       <c r="L203" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>203</v>
       </c>
@@ -8595,15 +8596,15 @@
         <v>3</v>
       </c>
       <c r="K204" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="L204" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>204</v>
       </c>
@@ -8635,15 +8636,15 @@
         <v>2</v>
       </c>
       <c r="K205" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>122</v>
       </c>
       <c r="L205" s="4">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>205</v>
       </c>
@@ -8675,15 +8676,15 @@
         <v>3</v>
       </c>
       <c r="K206" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="L206" s="4">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>206</v>
       </c>
@@ -8715,15 +8716,15 @@
         <v>5</v>
       </c>
       <c r="K207" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126</v>
       </c>
       <c r="L207" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>207</v>
       </c>
@@ -8755,15 +8756,15 @@
         <v>4</v>
       </c>
       <c r="K208" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="L208" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>208</v>
       </c>
@@ -8795,15 +8796,15 @@
         <v>3</v>
       </c>
       <c r="K209" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134</v>
       </c>
       <c r="L209" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>209</v>
       </c>
@@ -8835,15 +8836,15 @@
         <v>4</v>
       </c>
       <c r="K210" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>162</v>
       </c>
       <c r="L210" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>210</v>
       </c>
@@ -8875,15 +8876,15 @@
         <v>5</v>
       </c>
       <c r="K211" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="L211" s="2">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>211</v>
       </c>
@@ -8915,15 +8916,15 @@
         <v>4</v>
       </c>
       <c r="K212" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="L212" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>212</v>
       </c>
@@ -8955,15 +8956,15 @@
         <v>4</v>
       </c>
       <c r="K213" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="L213" s="4">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>213</v>
       </c>
@@ -8995,15 +8996,15 @@
         <v>2</v>
       </c>
       <c r="K214" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="L214" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>214</v>
       </c>
@@ -9035,15 +9036,15 @@
         <v>5</v>
       </c>
       <c r="K215" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>146</v>
       </c>
       <c r="L215" s="4">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>215</v>
       </c>
@@ -9075,15 +9076,15 @@
         <v>3</v>
       </c>
       <c r="K216" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="L216" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>216</v>
       </c>
@@ -9115,15 +9116,15 @@
         <v>4</v>
       </c>
       <c r="K217" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="L217" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>217</v>
       </c>
@@ -9155,15 +9156,15 @@
         <v>3</v>
       </c>
       <c r="K218" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="L218" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>218</v>
       </c>
@@ -9195,15 +9196,15 @@
         <v>3</v>
       </c>
       <c r="K219" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="L219" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>219</v>
       </c>
@@ -9235,15 +9236,15 @@
         <v>2</v>
       </c>
       <c r="K220" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="L220" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>220</v>
       </c>
@@ -9275,15 +9276,15 @@
         <v>2</v>
       </c>
       <c r="K221" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>146</v>
       </c>
       <c r="L221" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>221</v>
       </c>
@@ -9315,15 +9316,15 @@
         <v>3</v>
       </c>
       <c r="K222" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
       <c r="L222" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>222</v>
       </c>
@@ -9355,15 +9356,15 @@
         <v>3</v>
       </c>
       <c r="K223" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="L223" s="4">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>223</v>
       </c>
@@ -9395,15 +9396,15 @@
         <v>3</v>
       </c>
       <c r="K224" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>153</v>
       </c>
       <c r="L224" s="4">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>224</v>
       </c>
@@ -9435,15 +9436,15 @@
         <v>3</v>
       </c>
       <c r="K225" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>201</v>
       </c>
       <c r="L225" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>225</v>
       </c>
@@ -9475,15 +9476,15 @@
         <v>3</v>
       </c>
       <c r="K226" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="L226" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>226</v>
       </c>
@@ -9515,15 +9516,15 @@
         <v>4</v>
       </c>
       <c r="K227" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>158</v>
       </c>
       <c r="L227" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>227</v>
       </c>
@@ -9555,15 +9556,15 @@
         <v>3</v>
       </c>
       <c r="K228" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
       <c r="L228" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>228</v>
       </c>
@@ -9595,15 +9596,15 @@
         <v>4</v>
       </c>
       <c r="K229" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
       <c r="L229" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>229</v>
       </c>
@@ -9635,15 +9636,15 @@
         <v>2</v>
       </c>
       <c r="K230" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="L230" s="4">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>230</v>
       </c>
@@ -9675,15 +9676,15 @@
         <v>4</v>
       </c>
       <c r="K231" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="L231" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>231</v>
       </c>
@@ -9715,15 +9716,15 @@
         <v>3</v>
       </c>
       <c r="K232" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>186</v>
       </c>
       <c r="L232" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>232</v>
       </c>
@@ -9755,15 +9756,15 @@
         <v>4</v>
       </c>
       <c r="K233" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="L233" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>233</v>
       </c>
@@ -9795,15 +9796,15 @@
         <v>4</v>
       </c>
       <c r="K234" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="L234" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>234</v>
       </c>
@@ -9835,15 +9836,15 @@
         <v>1</v>
       </c>
       <c r="K235" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>146</v>
       </c>
       <c r="L235" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>235</v>
       </c>
@@ -9875,15 +9876,15 @@
         <v>4</v>
       </c>
       <c r="K236" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>153</v>
       </c>
       <c r="L236" s="4">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>236</v>
       </c>
@@ -9915,15 +9916,15 @@
         <v>0</v>
       </c>
       <c r="K237" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="L237" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>237</v>
       </c>
@@ -9955,15 +9956,15 @@
         <v>4</v>
       </c>
       <c r="K238" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
       <c r="L238" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>238</v>
       </c>
@@ -9992,15 +9993,15 @@
         <v>9</v>
       </c>
       <c r="K239" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>118</v>
       </c>
       <c r="L239" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>239</v>
       </c>
@@ -10029,15 +10030,15 @@
         <v>6</v>
       </c>
       <c r="K240" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>123</v>
       </c>
       <c r="L240" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>240</v>
       </c>
@@ -10066,15 +10067,15 @@
         <v>9</v>
       </c>
       <c r="K241" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>127</v>
       </c>
       <c r="L241" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>241</v>
       </c>
@@ -10103,15 +10104,15 @@
         <v>6</v>
       </c>
       <c r="K242" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L242" s="2">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>242</v>
       </c>
@@ -10140,15 +10141,15 @@
         <v>10</v>
       </c>
       <c r="K243" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="L243" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>243</v>
       </c>
@@ -10177,15 +10178,15 @@
         <v>8</v>
       </c>
       <c r="K244" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
       <c r="L244" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>244</v>
       </c>
@@ -10214,15 +10215,15 @@
         <v>6</v>
       </c>
       <c r="K245" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="L245" s="4">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>245</v>
       </c>
@@ -10251,15 +10252,15 @@
         <v>6</v>
       </c>
       <c r="K246" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>175</v>
       </c>
       <c r="L246" s="2">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>246</v>
       </c>
@@ -10288,15 +10289,15 @@
         <v>7</v>
       </c>
       <c r="K247" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>158</v>
       </c>
       <c r="L247" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>247</v>
       </c>
@@ -10325,15 +10326,15 @@
         <v>10</v>
       </c>
       <c r="K248" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>152</v>
       </c>
       <c r="L248" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>248</v>
       </c>
@@ -10362,15 +10363,15 @@
         <v>8</v>
       </c>
       <c r="K249" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="L249" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>249</v>
       </c>
@@ -10399,15 +10400,15 @@
         <v>4</v>
       </c>
       <c r="K250" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>158</v>
       </c>
       <c r="L250" s="4">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>250</v>
       </c>
@@ -10436,15 +10437,15 @@
         <v>9</v>
       </c>
       <c r="K251" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>199</v>
       </c>
       <c r="L251" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>251</v>
       </c>
@@ -10473,15 +10474,15 @@
         <v>5</v>
       </c>
       <c r="K252" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
       <c r="L252" s="4">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>252</v>
       </c>
@@ -10510,15 +10511,15 @@
         <v>6</v>
       </c>
       <c r="K253" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
       <c r="L253" s="4">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>253</v>
       </c>
@@ -10547,15 +10548,15 @@
         <v>8</v>
       </c>
       <c r="K254" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="L254" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>254</v>
       </c>
@@ -10584,15 +10585,15 @@
         <v>9</v>
       </c>
       <c r="K255" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>123</v>
       </c>
       <c r="L255" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>255</v>
       </c>
@@ -10621,15 +10622,15 @@
         <v>4</v>
       </c>
       <c r="K256" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
       <c r="L256" s="4">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>256</v>
       </c>
@@ -10658,15 +10659,15 @@
         <v>5</v>
       </c>
       <c r="K257" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>153</v>
       </c>
       <c r="L257" s="4">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>257</v>
       </c>
@@ -10695,15 +10696,15 @@
         <v>6</v>
       </c>
       <c r="K258" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133</v>
       </c>
       <c r="L258" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>258</v>
       </c>
@@ -10732,15 +10733,15 @@
         <v>8</v>
       </c>
       <c r="K259" s="2">
-        <f t="shared" ref="K259:K276" si="8">SUM(C259:G259)</f>
+        <f t="shared" ref="K259:K276" si="9">SUM(C259:G259)</f>
         <v>60</v>
       </c>
       <c r="L259" s="2">
-        <f t="shared" ref="L259:L276" si="9">SUM(H259:I259)</f>
+        <f t="shared" ref="L259:L276" si="10">SUM(H259:I259)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>259</v>
       </c>
@@ -10769,15 +10770,15 @@
         <v>10</v>
       </c>
       <c r="K260" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="L260" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>260</v>
       </c>
@@ -10806,15 +10807,15 @@
         <v>8</v>
       </c>
       <c r="K261" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>132</v>
       </c>
       <c r="L261" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>261</v>
       </c>
@@ -10843,15 +10844,15 @@
         <v>8</v>
       </c>
       <c r="K262" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>127</v>
       </c>
       <c r="L262" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>262</v>
       </c>
@@ -10880,15 +10881,15 @@
         <v>9</v>
       </c>
       <c r="K263" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>161</v>
       </c>
       <c r="L263" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>263</v>
       </c>
@@ -10917,15 +10918,15 @@
         <v>7</v>
       </c>
       <c r="K264" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
       <c r="L264" s="4">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>264</v>
       </c>
@@ -10954,15 +10955,15 @@
         <v>8</v>
       </c>
       <c r="K265" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>171</v>
       </c>
       <c r="L265" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>265</v>
       </c>
@@ -10991,15 +10992,15 @@
         <v>5</v>
       </c>
       <c r="K266" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156</v>
       </c>
       <c r="L266" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>266</v>
       </c>
@@ -11028,15 +11029,15 @@
         <v>8</v>
       </c>
       <c r="K267" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>197</v>
       </c>
       <c r="L267" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>267</v>
       </c>
@@ -11065,15 +11066,15 @@
         <v>5</v>
       </c>
       <c r="K268" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>166</v>
       </c>
       <c r="L268" s="2">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>268</v>
       </c>
@@ -11102,15 +11103,15 @@
         <v>8</v>
       </c>
       <c r="K269" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>125</v>
       </c>
       <c r="L269" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>269</v>
       </c>
@@ -11139,15 +11140,15 @@
         <v>2</v>
       </c>
       <c r="K270" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>133</v>
       </c>
       <c r="L270" s="4">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>270</v>
       </c>
@@ -11176,15 +11177,15 @@
         <v>6</v>
       </c>
       <c r="K271" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>192</v>
       </c>
       <c r="L271" s="2">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>271</v>
       </c>
@@ -11213,15 +11214,15 @@
         <v>9</v>
       </c>
       <c r="K272" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="L272" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>272</v>
       </c>
@@ -11250,15 +11251,15 @@
         <v>8</v>
       </c>
       <c r="K273" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
       <c r="L273" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -11287,15 +11288,15 @@
         <v>8</v>
       </c>
       <c r="K274" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
       <c r="L274" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>274</v>
       </c>
@@ -11324,15 +11325,15 @@
         <v>7</v>
       </c>
       <c r="K275" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>119</v>
       </c>
       <c r="L275" s="4">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>275</v>
       </c>
@@ -11361,12 +11362,3675 @@
         <v>4</v>
       </c>
       <c r="K276" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101</v>
       </c>
       <c r="L276" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A277" s="6">
+        <v>276</v>
+      </c>
+      <c r="B277" s="3">
+        <v>42916</v>
+      </c>
+      <c r="C277" s="2">
+        <v>1</v>
+      </c>
+      <c r="D277" s="2">
+        <v>3</v>
+      </c>
+      <c r="E277" s="2">
+        <v>11</v>
+      </c>
+      <c r="F277" s="2">
+        <v>18</v>
+      </c>
+      <c r="G277" s="2">
+        <v>31</v>
+      </c>
+      <c r="H277" s="5">
+        <v>3</v>
+      </c>
+      <c r="I277" s="5">
+        <v>6</v>
+      </c>
+      <c r="K277" s="4">
+        <f t="shared" ref="K277:K327" si="11">SUM(C277:G277)</f>
+        <v>64</v>
+      </c>
+      <c r="L277" s="4">
+        <f t="shared" ref="L277:L327" si="12">SUM(H277:I277)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A278" s="6">
+        <v>277</v>
+      </c>
+      <c r="B278" s="3">
+        <v>42923</v>
+      </c>
+      <c r="C278" s="2">
+        <v>15</v>
+      </c>
+      <c r="D278" s="2">
+        <v>16</v>
+      </c>
+      <c r="E278" s="2">
+        <v>17</v>
+      </c>
+      <c r="F278" s="2">
+        <v>23</v>
+      </c>
+      <c r="G278" s="2">
+        <v>30</v>
+      </c>
+      <c r="H278" s="5">
+        <v>6</v>
+      </c>
+      <c r="I278" s="5">
+        <v>9</v>
+      </c>
+      <c r="K278" s="4">
+        <f t="shared" si="11"/>
+        <v>101</v>
+      </c>
+      <c r="L278" s="4">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A279" s="6">
+        <v>278</v>
+      </c>
+      <c r="B279" s="3">
+        <v>42930</v>
+      </c>
+      <c r="C279" s="2">
+        <v>3</v>
+      </c>
+      <c r="D279" s="2">
+        <v>9</v>
+      </c>
+      <c r="E279" s="2">
+        <v>25</v>
+      </c>
+      <c r="F279" s="2">
+        <v>31</v>
+      </c>
+      <c r="G279" s="2">
+        <v>49</v>
+      </c>
+      <c r="H279" s="5">
+        <v>8</v>
+      </c>
+      <c r="I279" s="5">
+        <v>9</v>
+      </c>
+      <c r="K279" s="4">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+      <c r="L279" s="4">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A280" s="6">
+        <v>279</v>
+      </c>
+      <c r="B280" s="3">
+        <v>42937</v>
+      </c>
+      <c r="C280" s="2">
+        <v>27</v>
+      </c>
+      <c r="D280" s="2">
+        <v>35</v>
+      </c>
+      <c r="E280" s="2">
+        <v>36</v>
+      </c>
+      <c r="F280" s="2">
+        <v>38</v>
+      </c>
+      <c r="G280" s="2">
+        <v>48</v>
+      </c>
+      <c r="H280" s="5">
+        <v>2</v>
+      </c>
+      <c r="I280" s="5">
+        <v>3</v>
+      </c>
+      <c r="K280" s="4">
+        <f t="shared" si="11"/>
+        <v>184</v>
+      </c>
+      <c r="L280" s="4">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A281" s="6">
+        <v>280</v>
+      </c>
+      <c r="B281" s="3">
+        <v>42944</v>
+      </c>
+      <c r="C281" s="2">
+        <v>14</v>
+      </c>
+      <c r="D281" s="2">
+        <v>18</v>
+      </c>
+      <c r="E281" s="2">
+        <v>26</v>
+      </c>
+      <c r="F281" s="2">
+        <v>40</v>
+      </c>
+      <c r="G281" s="2">
+        <v>45</v>
+      </c>
+      <c r="H281" s="5">
+        <v>1</v>
+      </c>
+      <c r="I281" s="5">
+        <v>5</v>
+      </c>
+      <c r="K281" s="4">
+        <f t="shared" si="11"/>
+        <v>143</v>
+      </c>
+      <c r="L281" s="4">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A282" s="6">
+        <v>281</v>
+      </c>
+      <c r="B282" s="3">
+        <v>42951</v>
+      </c>
+      <c r="C282" s="2">
+        <v>18</v>
+      </c>
+      <c r="D282" s="2">
+        <v>39</v>
+      </c>
+      <c r="E282" s="2">
+        <v>44</v>
+      </c>
+      <c r="F282" s="2">
+        <v>46</v>
+      </c>
+      <c r="G282" s="2">
+        <v>47</v>
+      </c>
+      <c r="H282" s="5">
+        <v>4</v>
+      </c>
+      <c r="I282" s="5">
+        <v>6</v>
+      </c>
+      <c r="K282" s="4">
+        <f t="shared" si="11"/>
+        <v>194</v>
+      </c>
+      <c r="L282" s="4">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A283" s="6">
+        <v>282</v>
+      </c>
+      <c r="B283" s="3">
+        <v>42958</v>
+      </c>
+      <c r="C283" s="2">
+        <v>13</v>
+      </c>
+      <c r="D283" s="2">
+        <v>14</v>
+      </c>
+      <c r="E283" s="2">
+        <v>21</v>
+      </c>
+      <c r="F283" s="2">
+        <v>23</v>
+      </c>
+      <c r="G283" s="2">
+        <v>40</v>
+      </c>
+      <c r="H283" s="5">
+        <v>1</v>
+      </c>
+      <c r="I283" s="5">
+        <v>3</v>
+      </c>
+      <c r="K283" s="4">
+        <f t="shared" si="11"/>
+        <v>111</v>
+      </c>
+      <c r="L283" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A284" s="6">
+        <v>283</v>
+      </c>
+      <c r="B284" s="3">
+        <v>42965</v>
+      </c>
+      <c r="C284" s="2">
+        <v>1</v>
+      </c>
+      <c r="D284" s="2">
+        <v>4</v>
+      </c>
+      <c r="E284" s="2">
+        <v>20</v>
+      </c>
+      <c r="F284" s="2">
+        <v>32</v>
+      </c>
+      <c r="G284" s="2">
+        <v>34</v>
+      </c>
+      <c r="H284" s="5">
+        <v>3</v>
+      </c>
+      <c r="I284" s="5">
+        <v>6</v>
+      </c>
+      <c r="K284" s="4">
+        <f t="shared" si="11"/>
+        <v>91</v>
+      </c>
+      <c r="L284" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A285" s="6">
+        <v>284</v>
+      </c>
+      <c r="B285" s="3">
+        <v>42972</v>
+      </c>
+      <c r="C285" s="2">
+        <v>11</v>
+      </c>
+      <c r="D285" s="2">
+        <v>20</v>
+      </c>
+      <c r="E285" s="2">
+        <v>28</v>
+      </c>
+      <c r="F285" s="2">
+        <v>41</v>
+      </c>
+      <c r="G285" s="2">
+        <v>45</v>
+      </c>
+      <c r="H285" s="5">
+        <v>5</v>
+      </c>
+      <c r="I285" s="5">
+        <v>9</v>
+      </c>
+      <c r="K285" s="4">
+        <f t="shared" si="11"/>
+        <v>145</v>
+      </c>
+      <c r="L285" s="4">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A286" s="6">
+        <v>285</v>
+      </c>
+      <c r="B286" s="3">
+        <v>42979</v>
+      </c>
+      <c r="C286" s="2">
+        <v>3</v>
+      </c>
+      <c r="D286" s="2">
+        <v>4</v>
+      </c>
+      <c r="E286" s="2">
+        <v>9</v>
+      </c>
+      <c r="F286" s="2">
+        <v>19</v>
+      </c>
+      <c r="G286" s="2">
+        <v>28</v>
+      </c>
+      <c r="H286" s="5">
+        <v>1</v>
+      </c>
+      <c r="I286" s="5">
+        <v>7</v>
+      </c>
+      <c r="K286" s="4">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="L286" s="4">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287" s="6">
+        <v>286</v>
+      </c>
+      <c r="B287" s="3">
+        <v>42986</v>
+      </c>
+      <c r="C287" s="2">
+        <v>11</v>
+      </c>
+      <c r="D287" s="2">
+        <v>38</v>
+      </c>
+      <c r="E287" s="2">
+        <v>40</v>
+      </c>
+      <c r="F287" s="2">
+        <v>42</v>
+      </c>
+      <c r="G287" s="2">
+        <v>48</v>
+      </c>
+      <c r="H287" s="5">
+        <v>4</v>
+      </c>
+      <c r="I287" s="5">
+        <v>5</v>
+      </c>
+      <c r="K287" s="4">
+        <f t="shared" si="11"/>
+        <v>179</v>
+      </c>
+      <c r="L287" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A288" s="6">
+        <v>287</v>
+      </c>
+      <c r="B288" s="3">
+        <v>42993</v>
+      </c>
+      <c r="C288" s="2">
+        <v>15</v>
+      </c>
+      <c r="D288" s="2">
+        <v>22</v>
+      </c>
+      <c r="E288" s="2">
+        <v>29</v>
+      </c>
+      <c r="F288" s="2">
+        <v>33</v>
+      </c>
+      <c r="G288" s="2">
+        <v>47</v>
+      </c>
+      <c r="H288" s="5">
+        <v>3</v>
+      </c>
+      <c r="I288" s="5">
+        <v>7</v>
+      </c>
+      <c r="K288" s="4">
+        <f t="shared" si="11"/>
+        <v>146</v>
+      </c>
+      <c r="L288" s="4">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A289" s="6">
+        <v>288</v>
+      </c>
+      <c r="B289" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C289" s="2">
+        <v>10</v>
+      </c>
+      <c r="D289" s="2">
+        <v>17</v>
+      </c>
+      <c r="E289" s="2">
+        <v>32</v>
+      </c>
+      <c r="F289" s="2">
+        <v>36</v>
+      </c>
+      <c r="G289" s="2">
+        <v>47</v>
+      </c>
+      <c r="H289" s="5">
+        <v>2</v>
+      </c>
+      <c r="I289" s="5">
+        <v>5</v>
+      </c>
+      <c r="K289" s="4">
+        <f t="shared" si="11"/>
+        <v>142</v>
+      </c>
+      <c r="L289" s="4">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A290" s="6">
+        <v>289</v>
+      </c>
+      <c r="B290" s="3">
+        <v>43007</v>
+      </c>
+      <c r="C290" s="2">
+        <v>2</v>
+      </c>
+      <c r="D290" s="2">
+        <v>12</v>
+      </c>
+      <c r="E290" s="2">
+        <v>15</v>
+      </c>
+      <c r="F290" s="2">
+        <v>29</v>
+      </c>
+      <c r="G290" s="2">
+        <v>44</v>
+      </c>
+      <c r="H290" s="5">
+        <v>7</v>
+      </c>
+      <c r="I290" s="5">
+        <v>10</v>
+      </c>
+      <c r="K290" s="4">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+      <c r="L290" s="4">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A291" s="6">
+        <v>290</v>
+      </c>
+      <c r="B291" s="3">
+        <v>43014</v>
+      </c>
+      <c r="C291" s="2">
+        <v>5</v>
+      </c>
+      <c r="D291" s="2">
+        <v>17</v>
+      </c>
+      <c r="E291" s="2">
+        <v>28</v>
+      </c>
+      <c r="F291" s="2">
+        <v>40</v>
+      </c>
+      <c r="G291" s="2">
+        <v>44</v>
+      </c>
+      <c r="H291" s="5">
+        <v>1</v>
+      </c>
+      <c r="I291" s="5">
+        <v>8</v>
+      </c>
+      <c r="K291" s="4">
+        <f t="shared" si="11"/>
+        <v>134</v>
+      </c>
+      <c r="L291" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A292" s="6">
+        <v>291</v>
+      </c>
+      <c r="B292" s="3">
+        <v>43021</v>
+      </c>
+      <c r="C292" s="2">
+        <v>9</v>
+      </c>
+      <c r="D292" s="2">
+        <v>40</v>
+      </c>
+      <c r="E292" s="2">
+        <v>43</v>
+      </c>
+      <c r="F292" s="2">
+        <v>44</v>
+      </c>
+      <c r="G292" s="2">
+        <v>46</v>
+      </c>
+      <c r="H292" s="5">
+        <v>1</v>
+      </c>
+      <c r="I292" s="5">
+        <v>8</v>
+      </c>
+      <c r="K292" s="4">
+        <f t="shared" si="11"/>
+        <v>182</v>
+      </c>
+      <c r="L292" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A293" s="6">
+        <v>292</v>
+      </c>
+      <c r="B293" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C293" s="2">
+        <v>1</v>
+      </c>
+      <c r="D293" s="2">
+        <v>10</v>
+      </c>
+      <c r="E293" s="2">
+        <v>25</v>
+      </c>
+      <c r="F293" s="2">
+        <v>46</v>
+      </c>
+      <c r="G293" s="2">
+        <v>49</v>
+      </c>
+      <c r="H293" s="5">
+        <v>1</v>
+      </c>
+      <c r="I293" s="5">
+        <v>6</v>
+      </c>
+      <c r="K293" s="4">
+        <f t="shared" si="11"/>
+        <v>131</v>
+      </c>
+      <c r="L293" s="4">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A294" s="6">
+        <v>293</v>
+      </c>
+      <c r="B294" s="3">
+        <v>43035</v>
+      </c>
+      <c r="C294" s="2">
+        <v>2</v>
+      </c>
+      <c r="D294" s="2">
+        <v>20</v>
+      </c>
+      <c r="E294" s="2">
+        <v>23</v>
+      </c>
+      <c r="F294" s="2">
+        <v>29</v>
+      </c>
+      <c r="G294" s="2">
+        <v>50</v>
+      </c>
+      <c r="H294" s="5">
+        <v>4</v>
+      </c>
+      <c r="I294" s="5">
+        <v>5</v>
+      </c>
+      <c r="K294" s="4">
+        <f t="shared" si="11"/>
+        <v>124</v>
+      </c>
+      <c r="L294" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A295" s="6">
+        <v>294</v>
+      </c>
+      <c r="B295" s="3">
+        <v>43042</v>
+      </c>
+      <c r="C295" s="2">
+        <v>2</v>
+      </c>
+      <c r="D295" s="2">
+        <v>35</v>
+      </c>
+      <c r="E295" s="2">
+        <v>44</v>
+      </c>
+      <c r="F295" s="2">
+        <v>45</v>
+      </c>
+      <c r="G295" s="2">
+        <v>50</v>
+      </c>
+      <c r="H295" s="5">
+        <v>6</v>
+      </c>
+      <c r="I295" s="5">
+        <v>7</v>
+      </c>
+      <c r="K295" s="4">
+        <f t="shared" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="L295" s="4">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A296" s="6">
+        <v>295</v>
+      </c>
+      <c r="B296" s="3">
+        <v>43049</v>
+      </c>
+      <c r="C296" s="2">
+        <v>1</v>
+      </c>
+      <c r="D296" s="2">
+        <v>14</v>
+      </c>
+      <c r="E296" s="2">
+        <v>17</v>
+      </c>
+      <c r="F296" s="2">
+        <v>24</v>
+      </c>
+      <c r="G296" s="2">
+        <v>50</v>
+      </c>
+      <c r="H296" s="5">
+        <v>8</v>
+      </c>
+      <c r="I296" s="5">
+        <v>9</v>
+      </c>
+      <c r="K296" s="4">
+        <f t="shared" si="11"/>
+        <v>106</v>
+      </c>
+      <c r="L296" s="4">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A297" s="6">
+        <v>296</v>
+      </c>
+      <c r="B297" s="3">
+        <v>43056</v>
+      </c>
+      <c r="C297" s="2">
+        <v>3</v>
+      </c>
+      <c r="D297" s="2">
+        <v>4</v>
+      </c>
+      <c r="E297" s="2">
+        <v>17</v>
+      </c>
+      <c r="F297" s="2">
+        <v>41</v>
+      </c>
+      <c r="G297" s="2">
+        <v>47</v>
+      </c>
+      <c r="H297" s="5">
+        <v>2</v>
+      </c>
+      <c r="I297" s="5">
+        <v>5</v>
+      </c>
+      <c r="K297" s="4">
+        <f t="shared" si="11"/>
+        <v>112</v>
+      </c>
+      <c r="L297" s="4">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A298" s="6">
+        <v>297</v>
+      </c>
+      <c r="B298" s="3">
+        <v>43063</v>
+      </c>
+      <c r="C298" s="2">
+        <v>11</v>
+      </c>
+      <c r="D298" s="2">
+        <v>16</v>
+      </c>
+      <c r="E298" s="2">
+        <v>18</v>
+      </c>
+      <c r="F298" s="2">
+        <v>22</v>
+      </c>
+      <c r="G298" s="2">
+        <v>43</v>
+      </c>
+      <c r="H298" s="5">
+        <v>7</v>
+      </c>
+      <c r="I298" s="5">
+        <v>8</v>
+      </c>
+      <c r="K298" s="4">
+        <f t="shared" si="11"/>
+        <v>110</v>
+      </c>
+      <c r="L298" s="4">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A299" s="6">
+        <v>298</v>
+      </c>
+      <c r="B299" s="3">
+        <v>43070</v>
+      </c>
+      <c r="C299" s="2">
+        <v>5</v>
+      </c>
+      <c r="D299" s="2">
+        <v>16</v>
+      </c>
+      <c r="E299" s="2">
+        <v>20</v>
+      </c>
+      <c r="F299" s="2">
+        <v>29</v>
+      </c>
+      <c r="G299" s="2">
+        <v>30</v>
+      </c>
+      <c r="H299" s="5">
+        <v>2</v>
+      </c>
+      <c r="I299" s="5">
+        <v>7</v>
+      </c>
+      <c r="K299" s="4">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="L299" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A300" s="6">
+        <v>299</v>
+      </c>
+      <c r="B300" s="3">
+        <v>43077</v>
+      </c>
+      <c r="C300" s="2">
+        <v>9</v>
+      </c>
+      <c r="D300" s="2">
+        <v>15</v>
+      </c>
+      <c r="E300" s="2">
+        <v>20</v>
+      </c>
+      <c r="F300" s="2">
+        <v>24</v>
+      </c>
+      <c r="G300" s="2">
+        <v>34</v>
+      </c>
+      <c r="H300" s="5">
+        <v>1</v>
+      </c>
+      <c r="I300" s="5">
+        <v>5</v>
+      </c>
+      <c r="K300" s="4">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+      <c r="L300" s="4">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A301" s="6">
+        <v>300</v>
+      </c>
+      <c r="B301" s="3">
+        <v>43084</v>
+      </c>
+      <c r="C301" s="2">
+        <v>1</v>
+      </c>
+      <c r="D301" s="2">
+        <v>7</v>
+      </c>
+      <c r="E301" s="2">
+        <v>12</v>
+      </c>
+      <c r="F301" s="2">
+        <v>16</v>
+      </c>
+      <c r="G301" s="2">
+        <v>18</v>
+      </c>
+      <c r="H301" s="5">
+        <v>1</v>
+      </c>
+      <c r="I301" s="5">
+        <v>4</v>
+      </c>
+      <c r="K301" s="4">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
+      <c r="L301" s="4">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A302" s="6">
+        <v>301</v>
+      </c>
+      <c r="B302" s="3">
+        <v>43091</v>
+      </c>
+      <c r="C302" s="2">
+        <v>16</v>
+      </c>
+      <c r="D302" s="2">
+        <v>26</v>
+      </c>
+      <c r="E302" s="2">
+        <v>32</v>
+      </c>
+      <c r="F302" s="2">
+        <v>40</v>
+      </c>
+      <c r="G302" s="2">
+        <v>47</v>
+      </c>
+      <c r="H302" s="5">
+        <v>1</v>
+      </c>
+      <c r="I302" s="5">
+        <v>6</v>
+      </c>
+      <c r="K302" s="4">
+        <f t="shared" si="11"/>
+        <v>161</v>
+      </c>
+      <c r="L302" s="4">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A303" s="6">
+        <v>302</v>
+      </c>
+      <c r="B303" s="3">
+        <v>43098</v>
+      </c>
+      <c r="C303" s="2">
+        <v>16</v>
+      </c>
+      <c r="D303" s="2">
+        <v>30</v>
+      </c>
+      <c r="E303" s="2">
+        <v>33</v>
+      </c>
+      <c r="F303" s="2">
+        <v>40</v>
+      </c>
+      <c r="G303" s="2">
+        <v>43</v>
+      </c>
+      <c r="H303" s="5">
+        <v>2</v>
+      </c>
+      <c r="I303" s="5">
+        <v>4</v>
+      </c>
+      <c r="K303" s="4">
+        <f t="shared" si="11"/>
+        <v>162</v>
+      </c>
+      <c r="L303" s="4">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A304" s="6">
+        <v>303</v>
+      </c>
+      <c r="B304" s="3">
+        <v>43105</v>
+      </c>
+      <c r="C304" s="2">
+        <v>2</v>
+      </c>
+      <c r="D304" s="2">
+        <v>7</v>
+      </c>
+      <c r="E304" s="2">
+        <v>38</v>
+      </c>
+      <c r="F304" s="2">
+        <v>40</v>
+      </c>
+      <c r="G304" s="2">
+        <v>45</v>
+      </c>
+      <c r="H304" s="5">
+        <v>7</v>
+      </c>
+      <c r="I304" s="5">
+        <v>10</v>
+      </c>
+      <c r="K304" s="4">
+        <f t="shared" si="11"/>
+        <v>132</v>
+      </c>
+      <c r="L304" s="4">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A305" s="6">
+        <v>304</v>
+      </c>
+      <c r="B305" s="3">
+        <v>43112</v>
+      </c>
+      <c r="C305" s="2">
+        <v>16</v>
+      </c>
+      <c r="D305" s="2">
+        <v>17</v>
+      </c>
+      <c r="E305" s="2">
+        <v>25</v>
+      </c>
+      <c r="F305" s="2">
+        <v>40</v>
+      </c>
+      <c r="G305" s="2">
+        <v>44</v>
+      </c>
+      <c r="H305" s="5">
+        <v>2</v>
+      </c>
+      <c r="I305" s="5">
+        <v>9</v>
+      </c>
+      <c r="K305" s="4">
+        <f t="shared" si="11"/>
+        <v>142</v>
+      </c>
+      <c r="L305" s="4">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A306" s="6">
+        <v>305</v>
+      </c>
+      <c r="B306" s="3">
+        <v>43119</v>
+      </c>
+      <c r="C306" s="2">
+        <v>3</v>
+      </c>
+      <c r="D306" s="2">
+        <v>9</v>
+      </c>
+      <c r="E306" s="2">
+        <v>17</v>
+      </c>
+      <c r="F306" s="2">
+        <v>45</v>
+      </c>
+      <c r="G306" s="2">
+        <v>47</v>
+      </c>
+      <c r="H306" s="5">
+        <v>4</v>
+      </c>
+      <c r="I306" s="5">
+        <v>9</v>
+      </c>
+      <c r="K306" s="4">
+        <f t="shared" si="11"/>
+        <v>121</v>
+      </c>
+      <c r="L306" s="4">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A307" s="6">
+        <v>306</v>
+      </c>
+      <c r="B307" s="3">
+        <v>43126</v>
+      </c>
+      <c r="C307" s="2">
+        <v>10</v>
+      </c>
+      <c r="D307" s="2">
+        <v>23</v>
+      </c>
+      <c r="E307" s="2">
+        <v>26</v>
+      </c>
+      <c r="F307" s="2">
+        <v>29</v>
+      </c>
+      <c r="G307" s="2">
+        <v>35</v>
+      </c>
+      <c r="H307" s="5">
+        <v>3</v>
+      </c>
+      <c r="I307" s="5">
+        <v>5</v>
+      </c>
+      <c r="K307" s="4">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="L307" s="4">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A308" s="6">
+        <v>307</v>
+      </c>
+      <c r="B308" s="3">
+        <v>43133</v>
+      </c>
+      <c r="C308" s="2">
+        <v>15</v>
+      </c>
+      <c r="D308" s="2">
+        <v>24</v>
+      </c>
+      <c r="E308" s="2">
+        <v>29</v>
+      </c>
+      <c r="F308" s="2">
+        <v>33</v>
+      </c>
+      <c r="G308" s="2">
+        <v>41</v>
+      </c>
+      <c r="H308" s="5">
+        <v>7</v>
+      </c>
+      <c r="I308" s="5">
+        <v>8</v>
+      </c>
+      <c r="K308" s="4">
+        <f t="shared" si="11"/>
+        <v>142</v>
+      </c>
+      <c r="L308" s="4">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A309" s="6">
+        <v>308</v>
+      </c>
+      <c r="B309" s="3">
+        <v>43140</v>
+      </c>
+      <c r="C309" s="2">
+        <v>7</v>
+      </c>
+      <c r="D309" s="2">
+        <v>8</v>
+      </c>
+      <c r="E309" s="2">
+        <v>24</v>
+      </c>
+      <c r="F309" s="2">
+        <v>34</v>
+      </c>
+      <c r="G309" s="2">
+        <v>46</v>
+      </c>
+      <c r="H309" s="5">
+        <v>4</v>
+      </c>
+      <c r="I309" s="5">
+        <v>8</v>
+      </c>
+      <c r="K309" s="4">
+        <f t="shared" si="11"/>
+        <v>119</v>
+      </c>
+      <c r="L309" s="4">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A310" s="6">
+        <v>309</v>
+      </c>
+      <c r="B310" s="3">
+        <v>43147</v>
+      </c>
+      <c r="C310" s="2">
+        <v>4</v>
+      </c>
+      <c r="D310" s="2">
+        <v>8</v>
+      </c>
+      <c r="E310" s="2">
+        <v>19</v>
+      </c>
+      <c r="F310" s="2">
+        <v>25</v>
+      </c>
+      <c r="G310" s="2">
+        <v>44</v>
+      </c>
+      <c r="H310" s="5">
+        <v>9</v>
+      </c>
+      <c r="I310" s="5">
+        <v>10</v>
+      </c>
+      <c r="K310" s="4">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="L310" s="4">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A311" s="6">
+        <v>310</v>
+      </c>
+      <c r="B311" s="3">
+        <v>43154</v>
+      </c>
+      <c r="C311" s="2">
+        <v>18</v>
+      </c>
+      <c r="D311" s="2">
+        <v>26</v>
+      </c>
+      <c r="E311" s="2">
+        <v>33</v>
+      </c>
+      <c r="F311" s="2">
+        <v>42</v>
+      </c>
+      <c r="G311" s="2">
+        <v>46</v>
+      </c>
+      <c r="H311" s="5">
+        <v>4</v>
+      </c>
+      <c r="I311" s="5">
+        <v>10</v>
+      </c>
+      <c r="K311" s="4">
+        <f t="shared" si="11"/>
+        <v>165</v>
+      </c>
+      <c r="L311" s="4">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A312" s="6">
+        <v>311</v>
+      </c>
+      <c r="B312" s="3">
+        <v>43161</v>
+      </c>
+      <c r="C312" s="2">
+        <v>16</v>
+      </c>
+      <c r="D312" s="2">
+        <v>18</v>
+      </c>
+      <c r="E312" s="2">
+        <v>20</v>
+      </c>
+      <c r="F312" s="2">
+        <v>27</v>
+      </c>
+      <c r="G312" s="2">
+        <v>46</v>
+      </c>
+      <c r="H312" s="5">
+        <v>3</v>
+      </c>
+      <c r="I312" s="5">
+        <v>5</v>
+      </c>
+      <c r="K312" s="4">
+        <f t="shared" si="11"/>
+        <v>127</v>
+      </c>
+      <c r="L312" s="4">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A313" s="6">
+        <v>312</v>
+      </c>
+      <c r="B313" s="3">
+        <v>43168</v>
+      </c>
+      <c r="C313" s="2">
+        <v>15</v>
+      </c>
+      <c r="D313" s="2">
+        <v>23</v>
+      </c>
+      <c r="E313" s="2">
+        <v>28</v>
+      </c>
+      <c r="F313" s="2">
+        <v>33</v>
+      </c>
+      <c r="G313" s="2">
+        <v>36</v>
+      </c>
+      <c r="H313" s="5">
+        <v>4</v>
+      </c>
+      <c r="I313" s="5">
+        <v>7</v>
+      </c>
+      <c r="K313" s="4">
+        <f t="shared" si="11"/>
+        <v>135</v>
+      </c>
+      <c r="L313" s="4">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A314" s="6">
+        <v>313</v>
+      </c>
+      <c r="B314" s="3">
+        <v>43175</v>
+      </c>
+      <c r="C314" s="2">
+        <v>4</v>
+      </c>
+      <c r="D314" s="2">
+        <v>27</v>
+      </c>
+      <c r="E314" s="2">
+        <v>37</v>
+      </c>
+      <c r="F314" s="2">
+        <v>48</v>
+      </c>
+      <c r="G314" s="2">
+        <v>49</v>
+      </c>
+      <c r="H314" s="5">
+        <v>3</v>
+      </c>
+      <c r="I314" s="5">
+        <v>4</v>
+      </c>
+      <c r="K314" s="4">
+        <f t="shared" si="11"/>
+        <v>165</v>
+      </c>
+      <c r="L314" s="4">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A315" s="6">
+        <v>314</v>
+      </c>
+      <c r="B315" s="3">
+        <v>43182</v>
+      </c>
+      <c r="C315" s="2">
+        <v>4</v>
+      </c>
+      <c r="D315" s="2">
+        <v>14</v>
+      </c>
+      <c r="E315" s="2">
+        <v>22</v>
+      </c>
+      <c r="F315" s="2">
+        <v>33</v>
+      </c>
+      <c r="G315" s="2">
+        <v>42</v>
+      </c>
+      <c r="H315" s="5">
+        <v>1</v>
+      </c>
+      <c r="I315" s="5">
+        <v>10</v>
+      </c>
+      <c r="K315" s="4">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="L315" s="4">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A316" s="6">
+        <v>315</v>
+      </c>
+      <c r="B316" s="3">
+        <v>43189</v>
+      </c>
+      <c r="C316" s="2">
+        <v>5</v>
+      </c>
+      <c r="D316" s="2">
+        <v>15</v>
+      </c>
+      <c r="E316" s="2">
+        <v>17</v>
+      </c>
+      <c r="F316" s="2">
+        <v>29</v>
+      </c>
+      <c r="G316" s="2">
+        <v>32</v>
+      </c>
+      <c r="H316" s="5">
+        <v>5</v>
+      </c>
+      <c r="I316" s="5">
+        <v>7</v>
+      </c>
+      <c r="K316" s="4">
+        <f t="shared" si="11"/>
+        <v>98</v>
+      </c>
+      <c r="L316" s="4">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A317" s="6">
+        <v>316</v>
+      </c>
+      <c r="B317" s="3">
+        <v>43196</v>
+      </c>
+      <c r="C317" s="2">
+        <v>6</v>
+      </c>
+      <c r="D317" s="2">
+        <v>8</v>
+      </c>
+      <c r="E317" s="2">
+        <v>16</v>
+      </c>
+      <c r="F317" s="2">
+        <v>23</v>
+      </c>
+      <c r="G317" s="2">
+        <v>50</v>
+      </c>
+      <c r="H317" s="5">
+        <v>4</v>
+      </c>
+      <c r="I317" s="5">
+        <v>8</v>
+      </c>
+      <c r="K317" s="4">
+        <f t="shared" si="11"/>
+        <v>103</v>
+      </c>
+      <c r="L317" s="4">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A318" s="6">
+        <v>317</v>
+      </c>
+      <c r="B318" s="3">
+        <v>43203</v>
+      </c>
+      <c r="C318" s="2">
+        <v>3</v>
+      </c>
+      <c r="D318" s="2">
+        <v>10</v>
+      </c>
+      <c r="E318" s="2">
+        <v>21</v>
+      </c>
+      <c r="F318" s="2">
+        <v>25</v>
+      </c>
+      <c r="G318" s="2">
+        <v>34</v>
+      </c>
+      <c r="H318" s="5">
+        <v>7</v>
+      </c>
+      <c r="I318" s="5">
+        <v>10</v>
+      </c>
+      <c r="K318" s="4">
+        <f t="shared" si="11"/>
+        <v>93</v>
+      </c>
+      <c r="L318" s="4">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A319" s="6">
+        <v>318</v>
+      </c>
+      <c r="B319" s="3">
+        <v>43210</v>
+      </c>
+      <c r="C319" s="2">
+        <v>22</v>
+      </c>
+      <c r="D319" s="2">
+        <v>24</v>
+      </c>
+      <c r="E319" s="2">
+        <v>25</v>
+      </c>
+      <c r="F319" s="2">
+        <v>28</v>
+      </c>
+      <c r="G319" s="2">
+        <v>46</v>
+      </c>
+      <c r="H319" s="5">
+        <v>2</v>
+      </c>
+      <c r="I319" s="5">
+        <v>4</v>
+      </c>
+      <c r="K319" s="4">
+        <f t="shared" si="11"/>
+        <v>145</v>
+      </c>
+      <c r="L319" s="4">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A320" s="6">
+        <v>319</v>
+      </c>
+      <c r="B320" s="3">
+        <v>43217</v>
+      </c>
+      <c r="C320" s="2">
+        <v>9</v>
+      </c>
+      <c r="D320" s="2">
+        <v>21</v>
+      </c>
+      <c r="E320" s="2">
+        <v>31</v>
+      </c>
+      <c r="F320" s="2">
+        <v>32</v>
+      </c>
+      <c r="G320" s="2">
+        <v>33</v>
+      </c>
+      <c r="H320" s="5">
+        <v>9</v>
+      </c>
+      <c r="I320" s="5">
+        <v>10</v>
+      </c>
+      <c r="K320" s="4">
+        <f t="shared" si="11"/>
+        <v>126</v>
+      </c>
+      <c r="L320" s="4">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A321" s="6">
+        <v>320</v>
+      </c>
+      <c r="B321" s="3">
+        <v>43224</v>
+      </c>
+      <c r="C321" s="2">
+        <v>24</v>
+      </c>
+      <c r="D321" s="2">
+        <v>26</v>
+      </c>
+      <c r="E321" s="2">
+        <v>29</v>
+      </c>
+      <c r="F321" s="2">
+        <v>36</v>
+      </c>
+      <c r="G321" s="2">
+        <v>49</v>
+      </c>
+      <c r="H321" s="5">
+        <v>3</v>
+      </c>
+      <c r="I321" s="5">
+        <v>6</v>
+      </c>
+      <c r="K321" s="4">
+        <f t="shared" si="11"/>
+        <v>164</v>
+      </c>
+      <c r="L321" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A322" s="6">
+        <v>321</v>
+      </c>
+      <c r="B322" s="3">
+        <v>43231</v>
+      </c>
+      <c r="C322" s="2">
+        <v>3</v>
+      </c>
+      <c r="D322" s="2">
+        <v>14</v>
+      </c>
+      <c r="E322" s="2">
+        <v>17</v>
+      </c>
+      <c r="F322" s="2">
+        <v>37</v>
+      </c>
+      <c r="G322" s="2">
+        <v>39</v>
+      </c>
+      <c r="H322" s="5">
+        <v>5</v>
+      </c>
+      <c r="I322" s="5">
+        <v>10</v>
+      </c>
+      <c r="K322" s="4">
+        <f t="shared" si="11"/>
+        <v>110</v>
+      </c>
+      <c r="L322" s="4">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A323" s="6">
+        <v>322</v>
+      </c>
+      <c r="B323" s="3">
+        <v>43238</v>
+      </c>
+      <c r="C323" s="2">
+        <v>1</v>
+      </c>
+      <c r="D323" s="2">
+        <v>11</v>
+      </c>
+      <c r="E323" s="2">
+        <v>23</v>
+      </c>
+      <c r="F323" s="2">
+        <v>41</v>
+      </c>
+      <c r="G323" s="2">
+        <v>44</v>
+      </c>
+      <c r="H323" s="5">
+        <v>2</v>
+      </c>
+      <c r="I323" s="5">
+        <v>8</v>
+      </c>
+      <c r="K323" s="4">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="L323" s="4">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A324" s="6">
+        <v>323</v>
+      </c>
+      <c r="B324" s="3">
+        <v>43245</v>
+      </c>
+      <c r="C324" s="2">
+        <v>15</v>
+      </c>
+      <c r="D324" s="2">
+        <v>31</v>
+      </c>
+      <c r="E324" s="2">
+        <v>35</v>
+      </c>
+      <c r="F324" s="2">
+        <v>40</v>
+      </c>
+      <c r="G324" s="2">
+        <v>46</v>
+      </c>
+      <c r="H324" s="5">
+        <v>3</v>
+      </c>
+      <c r="I324" s="5">
+        <v>8</v>
+      </c>
+      <c r="K324" s="4">
+        <f t="shared" si="11"/>
+        <v>167</v>
+      </c>
+      <c r="L324" s="4">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A325" s="6">
+        <v>324</v>
+      </c>
+      <c r="B325" s="3">
+        <v>43252</v>
+      </c>
+      <c r="C325" s="2">
+        <v>14</v>
+      </c>
+      <c r="D325" s="2">
+        <v>19</v>
+      </c>
+      <c r="E325" s="2">
+        <v>21</v>
+      </c>
+      <c r="F325" s="2">
+        <v>30</v>
+      </c>
+      <c r="G325" s="2">
+        <v>32</v>
+      </c>
+      <c r="H325" s="5">
+        <v>4</v>
+      </c>
+      <c r="I325" s="5">
+        <v>7</v>
+      </c>
+      <c r="K325" s="4">
+        <f t="shared" si="11"/>
+        <v>116</v>
+      </c>
+      <c r="L325" s="4">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A326" s="6">
+        <v>325</v>
+      </c>
+      <c r="B326" s="3">
+        <v>43259</v>
+      </c>
+      <c r="C326" s="2">
+        <v>5</v>
+      </c>
+      <c r="D326" s="2">
+        <v>13</v>
+      </c>
+      <c r="E326" s="2">
+        <v>22</v>
+      </c>
+      <c r="F326" s="2">
+        <v>36</v>
+      </c>
+      <c r="G326" s="2">
+        <v>39</v>
+      </c>
+      <c r="H326" s="5">
+        <v>9</v>
+      </c>
+      <c r="I326" s="5">
+        <v>10</v>
+      </c>
+      <c r="K326" s="4">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="L326" s="4">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A327" s="6">
+        <v>326</v>
+      </c>
+      <c r="B327" s="3">
+        <v>43266</v>
+      </c>
+      <c r="C327" s="2">
+        <v>1</v>
+      </c>
+      <c r="D327" s="2">
+        <v>5</v>
+      </c>
+      <c r="E327" s="2">
+        <v>7</v>
+      </c>
+      <c r="F327" s="2">
+        <v>9</v>
+      </c>
+      <c r="G327" s="2">
+        <v>21</v>
+      </c>
+      <c r="H327" s="5">
+        <v>3</v>
+      </c>
+      <c r="I327" s="5">
+        <v>10</v>
+      </c>
+      <c r="K327" s="4">
+        <f t="shared" si="11"/>
+        <v>43</v>
+      </c>
+      <c r="L327" s="4">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A328" s="6">
+        <v>327</v>
+      </c>
+      <c r="B328" s="3">
+        <v>43273</v>
+      </c>
+      <c r="C328" s="2">
+        <v>16</v>
+      </c>
+      <c r="D328" s="2">
+        <v>24</v>
+      </c>
+      <c r="E328" s="2">
+        <v>33</v>
+      </c>
+      <c r="F328" s="2">
+        <v>35</v>
+      </c>
+      <c r="G328" s="2">
+        <v>43</v>
+      </c>
+      <c r="H328" s="5">
+        <v>6</v>
+      </c>
+      <c r="I328" s="5">
+        <v>7</v>
+      </c>
+      <c r="K328" s="4">
+        <f t="shared" ref="K328:K375" si="13">SUM(C328:G328)</f>
+        <v>151</v>
+      </c>
+      <c r="L328" s="4">
+        <f t="shared" ref="L328:L375" si="14">SUM(H328:I328)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A329" s="6">
+        <v>328</v>
+      </c>
+      <c r="B329" s="3">
+        <v>43280</v>
+      </c>
+      <c r="C329" s="2">
+        <v>9</v>
+      </c>
+      <c r="D329" s="2">
+        <v>18</v>
+      </c>
+      <c r="E329" s="2">
+        <v>30</v>
+      </c>
+      <c r="F329" s="2">
+        <v>47</v>
+      </c>
+      <c r="G329" s="2">
+        <v>48</v>
+      </c>
+      <c r="H329" s="5">
+        <v>4</v>
+      </c>
+      <c r="I329" s="5">
+        <v>6</v>
+      </c>
+      <c r="K329" s="4">
+        <f t="shared" si="13"/>
+        <v>152</v>
+      </c>
+      <c r="L329" s="4">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A330" s="6">
+        <v>329</v>
+      </c>
+      <c r="B330" s="3">
+        <v>43287</v>
+      </c>
+      <c r="C330" s="2">
+        <v>2</v>
+      </c>
+      <c r="D330" s="2">
+        <v>7</v>
+      </c>
+      <c r="E330" s="2">
+        <v>24</v>
+      </c>
+      <c r="F330" s="2">
+        <v>38</v>
+      </c>
+      <c r="G330" s="2">
+        <v>45</v>
+      </c>
+      <c r="H330" s="5">
+        <v>5</v>
+      </c>
+      <c r="I330" s="5">
+        <v>8</v>
+      </c>
+      <c r="K330" s="4">
+        <f t="shared" si="13"/>
+        <v>116</v>
+      </c>
+      <c r="L330" s="4">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A331" s="6">
+        <v>330</v>
+      </c>
+      <c r="B331" s="3">
+        <v>43294</v>
+      </c>
+      <c r="C331" s="2">
+        <v>13</v>
+      </c>
+      <c r="D331" s="2">
+        <v>14</v>
+      </c>
+      <c r="E331" s="2">
+        <v>21</v>
+      </c>
+      <c r="F331" s="2">
+        <v>34</v>
+      </c>
+      <c r="G331" s="2">
+        <v>46</v>
+      </c>
+      <c r="H331" s="5">
+        <v>2</v>
+      </c>
+      <c r="I331" s="5">
+        <v>5</v>
+      </c>
+      <c r="K331" s="4">
+        <f t="shared" si="13"/>
+        <v>128</v>
+      </c>
+      <c r="L331" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A332" s="6">
+        <v>331</v>
+      </c>
+      <c r="B332" s="3">
+        <v>43301</v>
+      </c>
+      <c r="C332" s="2">
+        <v>13</v>
+      </c>
+      <c r="D332" s="2">
+        <v>33</v>
+      </c>
+      <c r="E332" s="2">
+        <v>40</v>
+      </c>
+      <c r="F332" s="2">
+        <v>42</v>
+      </c>
+      <c r="G332" s="2">
+        <v>43</v>
+      </c>
+      <c r="H332" s="5">
+        <v>7</v>
+      </c>
+      <c r="I332" s="5">
+        <v>9</v>
+      </c>
+      <c r="K332" s="4">
+        <f t="shared" si="13"/>
+        <v>171</v>
+      </c>
+      <c r="L332" s="4">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A333" s="6">
+        <v>332</v>
+      </c>
+      <c r="B333" s="3">
+        <v>43308</v>
+      </c>
+      <c r="C333" s="2">
+        <v>2</v>
+      </c>
+      <c r="D333" s="2">
+        <v>22</v>
+      </c>
+      <c r="E333" s="2">
+        <v>40</v>
+      </c>
+      <c r="F333" s="2">
+        <v>43</v>
+      </c>
+      <c r="G333" s="2">
+        <v>50</v>
+      </c>
+      <c r="H333" s="5">
+        <v>3</v>
+      </c>
+      <c r="I333" s="5">
+        <v>8</v>
+      </c>
+      <c r="K333" s="4">
+        <f t="shared" si="13"/>
+        <v>157</v>
+      </c>
+      <c r="L333" s="4">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A334" s="6">
+        <v>333</v>
+      </c>
+      <c r="B334" s="3">
+        <v>43315</v>
+      </c>
+      <c r="C334" s="2">
+        <v>4</v>
+      </c>
+      <c r="D334" s="2">
+        <v>8</v>
+      </c>
+      <c r="E334" s="2">
+        <v>12</v>
+      </c>
+      <c r="F334" s="2">
+        <v>25</v>
+      </c>
+      <c r="G334" s="2">
+        <v>31</v>
+      </c>
+      <c r="H334" s="5">
+        <v>7</v>
+      </c>
+      <c r="I334" s="5">
+        <v>8</v>
+      </c>
+      <c r="K334" s="4">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="L334" s="4">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A335" s="6">
+        <v>334</v>
+      </c>
+      <c r="B335" s="3">
+        <v>43322</v>
+      </c>
+      <c r="C335" s="2">
+        <v>4</v>
+      </c>
+      <c r="D335" s="2">
+        <v>15</v>
+      </c>
+      <c r="E335" s="2">
+        <v>17</v>
+      </c>
+      <c r="F335" s="2">
+        <v>21</v>
+      </c>
+      <c r="G335" s="2">
+        <v>23</v>
+      </c>
+      <c r="H335" s="5">
+        <v>6</v>
+      </c>
+      <c r="I335" s="5">
+        <v>7</v>
+      </c>
+      <c r="K335" s="4">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="L335" s="4">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A336" s="6">
+        <v>335</v>
+      </c>
+      <c r="B336" s="3">
+        <v>43329</v>
+      </c>
+      <c r="C336" s="2">
+        <v>2</v>
+      </c>
+      <c r="D336" s="2">
+        <v>12</v>
+      </c>
+      <c r="E336" s="2">
+        <v>32</v>
+      </c>
+      <c r="F336" s="2">
+        <v>43</v>
+      </c>
+      <c r="G336" s="2">
+        <v>44</v>
+      </c>
+      <c r="H336" s="5">
+        <v>3</v>
+      </c>
+      <c r="I336" s="5">
+        <v>4</v>
+      </c>
+      <c r="K336" s="4">
+        <f t="shared" si="13"/>
+        <v>133</v>
+      </c>
+      <c r="L336" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A337" s="6">
+        <v>336</v>
+      </c>
+      <c r="B337" s="3">
+        <v>43336</v>
+      </c>
+      <c r="C337" s="2">
+        <v>8</v>
+      </c>
+      <c r="D337" s="2">
+        <v>25</v>
+      </c>
+      <c r="E337" s="2">
+        <v>26</v>
+      </c>
+      <c r="F337" s="2">
+        <v>38</v>
+      </c>
+      <c r="G337" s="2">
+        <v>48</v>
+      </c>
+      <c r="H337" s="5">
+        <v>6</v>
+      </c>
+      <c r="I337" s="5">
+        <v>9</v>
+      </c>
+      <c r="K337" s="4">
+        <f t="shared" si="13"/>
+        <v>145</v>
+      </c>
+      <c r="L337" s="4">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A338" s="6">
+        <v>337</v>
+      </c>
+      <c r="B338" s="3">
+        <v>43343</v>
+      </c>
+      <c r="C338" s="2">
+        <v>3</v>
+      </c>
+      <c r="D338" s="2">
+        <v>6</v>
+      </c>
+      <c r="E338" s="2">
+        <v>9</v>
+      </c>
+      <c r="F338" s="2">
+        <v>18</v>
+      </c>
+      <c r="G338" s="2">
+        <v>24</v>
+      </c>
+      <c r="H338" s="5">
+        <v>2</v>
+      </c>
+      <c r="I338" s="5">
+        <v>7</v>
+      </c>
+      <c r="K338" s="4">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="L338" s="4">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A339" s="6">
+        <v>338</v>
+      </c>
+      <c r="B339" s="3">
+        <v>43350</v>
+      </c>
+      <c r="C339" s="2">
+        <v>4</v>
+      </c>
+      <c r="D339" s="2">
+        <v>7</v>
+      </c>
+      <c r="E339" s="2">
+        <v>28</v>
+      </c>
+      <c r="F339" s="2">
+        <v>36</v>
+      </c>
+      <c r="G339" s="2">
+        <v>43</v>
+      </c>
+      <c r="H339" s="5">
+        <v>1</v>
+      </c>
+      <c r="I339" s="5">
+        <v>6</v>
+      </c>
+      <c r="K339" s="4">
+        <f t="shared" si="13"/>
+        <v>118</v>
+      </c>
+      <c r="L339" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A340" s="6">
+        <v>339</v>
+      </c>
+      <c r="B340" s="3">
+        <v>43357</v>
+      </c>
+      <c r="C340" s="2">
+        <v>24</v>
+      </c>
+      <c r="D340" s="2">
+        <v>33</v>
+      </c>
+      <c r="E340" s="2">
+        <v>35</v>
+      </c>
+      <c r="F340" s="2">
+        <v>46</v>
+      </c>
+      <c r="G340" s="2">
+        <v>49</v>
+      </c>
+      <c r="H340" s="5">
+        <v>5</v>
+      </c>
+      <c r="I340" s="5">
+        <v>9</v>
+      </c>
+      <c r="K340" s="4">
+        <f t="shared" si="13"/>
+        <v>187</v>
+      </c>
+      <c r="L340" s="4">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A341" s="6">
+        <v>340</v>
+      </c>
+      <c r="B341" s="3">
+        <v>43364</v>
+      </c>
+      <c r="C341" s="2">
+        <v>5</v>
+      </c>
+      <c r="D341" s="2">
+        <v>8</v>
+      </c>
+      <c r="E341" s="2">
+        <v>16</v>
+      </c>
+      <c r="F341" s="2">
+        <v>42</v>
+      </c>
+      <c r="G341" s="2">
+        <v>46</v>
+      </c>
+      <c r="H341" s="5">
+        <v>2</v>
+      </c>
+      <c r="I341" s="5">
+        <v>10</v>
+      </c>
+      <c r="K341" s="4">
+        <f t="shared" si="13"/>
+        <v>117</v>
+      </c>
+      <c r="L341" s="4">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A342" s="6">
+        <v>341</v>
+      </c>
+      <c r="B342" s="3">
+        <v>43371</v>
+      </c>
+      <c r="C342" s="2">
+        <v>3</v>
+      </c>
+      <c r="D342" s="2">
+        <v>8</v>
+      </c>
+      <c r="E342" s="2">
+        <v>13</v>
+      </c>
+      <c r="F342" s="2">
+        <v>18</v>
+      </c>
+      <c r="G342" s="2">
+        <v>40</v>
+      </c>
+      <c r="H342" s="5">
+        <v>6</v>
+      </c>
+      <c r="I342" s="5">
+        <v>10</v>
+      </c>
+      <c r="K342" s="4">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="L342" s="4">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A343" s="6">
+        <v>342</v>
+      </c>
+      <c r="B343" s="3">
+        <v>43378</v>
+      </c>
+      <c r="C343" s="2">
+        <v>12</v>
+      </c>
+      <c r="D343" s="2">
+        <v>15</v>
+      </c>
+      <c r="E343" s="2">
+        <v>32</v>
+      </c>
+      <c r="F343" s="2">
+        <v>44</v>
+      </c>
+      <c r="G343" s="2">
+        <v>49</v>
+      </c>
+      <c r="H343" s="5">
+        <v>5</v>
+      </c>
+      <c r="I343" s="5">
+        <v>7</v>
+      </c>
+      <c r="K343" s="4">
+        <f t="shared" si="13"/>
+        <v>152</v>
+      </c>
+      <c r="L343" s="4">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A344" s="6">
+        <v>343</v>
+      </c>
+      <c r="B344" s="3">
+        <v>43385</v>
+      </c>
+      <c r="C344" s="2">
+        <v>6</v>
+      </c>
+      <c r="D344" s="2">
+        <v>26</v>
+      </c>
+      <c r="E344" s="2">
+        <v>31</v>
+      </c>
+      <c r="F344" s="2">
+        <v>42</v>
+      </c>
+      <c r="G344" s="2">
+        <v>50</v>
+      </c>
+      <c r="H344" s="5">
+        <v>2</v>
+      </c>
+      <c r="I344" s="5">
+        <v>9</v>
+      </c>
+      <c r="K344" s="4">
+        <f t="shared" si="13"/>
+        <v>155</v>
+      </c>
+      <c r="L344" s="4">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A345" s="6">
+        <v>344</v>
+      </c>
+      <c r="B345" s="3">
+        <v>43392</v>
+      </c>
+      <c r="C345" s="2">
+        <v>9</v>
+      </c>
+      <c r="D345" s="2">
+        <v>12</v>
+      </c>
+      <c r="E345" s="2">
+        <v>28</v>
+      </c>
+      <c r="F345" s="2">
+        <v>32</v>
+      </c>
+      <c r="G345" s="2">
+        <v>48</v>
+      </c>
+      <c r="H345" s="5">
+        <v>7</v>
+      </c>
+      <c r="I345" s="5">
+        <v>8</v>
+      </c>
+      <c r="K345" s="4">
+        <f t="shared" si="13"/>
+        <v>129</v>
+      </c>
+      <c r="L345" s="4">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A346" s="6">
+        <v>345</v>
+      </c>
+      <c r="B346" s="3">
+        <v>43399</v>
+      </c>
+      <c r="C346" s="2">
+        <v>18</v>
+      </c>
+      <c r="D346" s="2">
+        <v>19</v>
+      </c>
+      <c r="E346" s="2">
+        <v>33</v>
+      </c>
+      <c r="F346" s="2">
+        <v>38</v>
+      </c>
+      <c r="G346" s="2">
+        <v>44</v>
+      </c>
+      <c r="H346" s="5">
+        <v>4</v>
+      </c>
+      <c r="I346" s="5">
+        <v>10</v>
+      </c>
+      <c r="K346" s="4">
+        <f t="shared" si="13"/>
+        <v>152</v>
+      </c>
+      <c r="L346" s="4">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A347" s="6">
+        <v>346</v>
+      </c>
+      <c r="B347" s="3">
+        <v>43406</v>
+      </c>
+      <c r="C347" s="2">
+        <v>5</v>
+      </c>
+      <c r="D347" s="2">
+        <v>17</v>
+      </c>
+      <c r="E347" s="2">
+        <v>27</v>
+      </c>
+      <c r="F347" s="2">
+        <v>33</v>
+      </c>
+      <c r="G347" s="2">
+        <v>42</v>
+      </c>
+      <c r="H347" s="5">
+        <v>9</v>
+      </c>
+      <c r="I347" s="5">
+        <v>10</v>
+      </c>
+      <c r="K347" s="4">
+        <f t="shared" si="13"/>
+        <v>124</v>
+      </c>
+      <c r="L347" s="4">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A348" s="6">
+        <v>347</v>
+      </c>
+      <c r="B348" s="3">
+        <v>43413</v>
+      </c>
+      <c r="C348" s="2">
+        <v>8</v>
+      </c>
+      <c r="D348" s="2">
+        <v>32</v>
+      </c>
+      <c r="E348" s="2">
+        <v>34</v>
+      </c>
+      <c r="F348" s="2">
+        <v>46</v>
+      </c>
+      <c r="G348" s="2">
+        <v>49</v>
+      </c>
+      <c r="H348" s="5">
+        <v>3</v>
+      </c>
+      <c r="I348" s="5">
+        <v>5</v>
+      </c>
+      <c r="K348" s="4">
+        <f t="shared" si="13"/>
+        <v>169</v>
+      </c>
+      <c r="L348" s="4">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A349" s="6">
+        <v>348</v>
+      </c>
+      <c r="B349" s="3">
+        <v>43420</v>
+      </c>
+      <c r="C349" s="2">
+        <v>13</v>
+      </c>
+      <c r="D349" s="2">
+        <v>15</v>
+      </c>
+      <c r="E349" s="2">
+        <v>18</v>
+      </c>
+      <c r="F349" s="2">
+        <v>39</v>
+      </c>
+      <c r="G349" s="2">
+        <v>45</v>
+      </c>
+      <c r="H349" s="5">
+        <v>5</v>
+      </c>
+      <c r="I349" s="5">
+        <v>6</v>
+      </c>
+      <c r="K349" s="4">
+        <f t="shared" si="13"/>
+        <v>130</v>
+      </c>
+      <c r="L349" s="4">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A350" s="6">
+        <v>349</v>
+      </c>
+      <c r="B350" s="3">
+        <v>43427</v>
+      </c>
+      <c r="C350" s="2">
+        <v>17</v>
+      </c>
+      <c r="D350" s="2">
+        <v>22</v>
+      </c>
+      <c r="E350" s="2">
+        <v>28</v>
+      </c>
+      <c r="F350" s="2">
+        <v>31</v>
+      </c>
+      <c r="G350" s="2">
+        <v>46</v>
+      </c>
+      <c r="H350" s="5">
+        <v>5</v>
+      </c>
+      <c r="I350" s="5">
+        <v>10</v>
+      </c>
+      <c r="K350" s="4">
+        <f t="shared" si="13"/>
+        <v>144</v>
+      </c>
+      <c r="L350" s="4">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A351" s="6">
+        <v>350</v>
+      </c>
+      <c r="B351" s="3">
+        <v>43434</v>
+      </c>
+      <c r="C351" s="2">
+        <v>18</v>
+      </c>
+      <c r="D351" s="2">
+        <v>22</v>
+      </c>
+      <c r="E351" s="2">
+        <v>35</v>
+      </c>
+      <c r="F351" s="2">
+        <v>36</v>
+      </c>
+      <c r="G351" s="2">
+        <v>41</v>
+      </c>
+      <c r="H351" s="5">
+        <v>3</v>
+      </c>
+      <c r="I351" s="5">
+        <v>4</v>
+      </c>
+      <c r="K351" s="4">
+        <f t="shared" si="13"/>
+        <v>152</v>
+      </c>
+      <c r="L351" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A352" s="6">
+        <v>351</v>
+      </c>
+      <c r="B352" s="3">
+        <v>43441</v>
+      </c>
+      <c r="C352" s="2">
+        <v>4</v>
+      </c>
+      <c r="D352" s="2">
+        <v>16</v>
+      </c>
+      <c r="E352" s="2">
+        <v>21</v>
+      </c>
+      <c r="F352" s="2">
+        <v>31</v>
+      </c>
+      <c r="G352" s="2">
+        <v>42</v>
+      </c>
+      <c r="H352" s="5">
+        <v>4</v>
+      </c>
+      <c r="I352" s="5">
+        <v>6</v>
+      </c>
+      <c r="K352" s="4">
+        <f t="shared" si="13"/>
+        <v>114</v>
+      </c>
+      <c r="L352" s="4">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A353" s="6">
+        <v>352</v>
+      </c>
+      <c r="B353" s="3">
+        <v>43448</v>
+      </c>
+      <c r="C353" s="2">
+        <v>4</v>
+      </c>
+      <c r="D353" s="2">
+        <v>14</v>
+      </c>
+      <c r="E353" s="2">
+        <v>24</v>
+      </c>
+      <c r="F353" s="2">
+        <v>26</v>
+      </c>
+      <c r="G353" s="2">
+        <v>30</v>
+      </c>
+      <c r="H353" s="5">
+        <v>9</v>
+      </c>
+      <c r="I353" s="5">
+        <v>10</v>
+      </c>
+      <c r="K353" s="4">
+        <f t="shared" si="13"/>
+        <v>98</v>
+      </c>
+      <c r="L353" s="4">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A354" s="6">
+        <v>353</v>
+      </c>
+      <c r="B354" s="3">
+        <v>43455</v>
+      </c>
+      <c r="C354" s="2">
+        <v>3</v>
+      </c>
+      <c r="D354" s="2">
+        <v>16</v>
+      </c>
+      <c r="E354" s="2">
+        <v>20</v>
+      </c>
+      <c r="F354" s="2">
+        <v>34</v>
+      </c>
+      <c r="G354" s="2">
+        <v>49</v>
+      </c>
+      <c r="H354" s="5">
+        <v>2</v>
+      </c>
+      <c r="I354" s="5">
+        <v>10</v>
+      </c>
+      <c r="K354" s="4">
+        <f t="shared" si="13"/>
+        <v>122</v>
+      </c>
+      <c r="L354" s="4">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A355" s="6">
+        <v>354</v>
+      </c>
+      <c r="B355" s="3">
+        <v>43462</v>
+      </c>
+      <c r="C355" s="2">
+        <v>19</v>
+      </c>
+      <c r="D355" s="2">
+        <v>24</v>
+      </c>
+      <c r="E355" s="2">
+        <v>31</v>
+      </c>
+      <c r="F355" s="2">
+        <v>38</v>
+      </c>
+      <c r="G355" s="2">
+        <v>40</v>
+      </c>
+      <c r="H355" s="5">
+        <v>7</v>
+      </c>
+      <c r="I355" s="5">
+        <v>10</v>
+      </c>
+      <c r="K355" s="4">
+        <f t="shared" si="13"/>
+        <v>152</v>
+      </c>
+      <c r="L355" s="4">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A356" s="6">
+        <v>355</v>
+      </c>
+      <c r="B356" s="3">
+        <v>43469</v>
+      </c>
+      <c r="C356" s="2">
+        <v>3</v>
+      </c>
+      <c r="D356" s="2">
+        <v>10</v>
+      </c>
+      <c r="E356" s="2">
+        <v>25</v>
+      </c>
+      <c r="F356" s="2">
+        <v>32</v>
+      </c>
+      <c r="G356" s="2">
+        <v>43</v>
+      </c>
+      <c r="H356" s="5">
+        <v>1</v>
+      </c>
+      <c r="I356" s="5">
+        <v>3</v>
+      </c>
+      <c r="K356" s="4">
+        <f t="shared" si="13"/>
+        <v>113</v>
+      </c>
+      <c r="L356" s="4">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A357" s="6">
+        <v>356</v>
+      </c>
+      <c r="B357" s="3">
+        <v>43476</v>
+      </c>
+      <c r="C357" s="2">
+        <v>6</v>
+      </c>
+      <c r="D357" s="2">
+        <v>12</v>
+      </c>
+      <c r="E357" s="2">
+        <v>35</v>
+      </c>
+      <c r="F357" s="2">
+        <v>39</v>
+      </c>
+      <c r="G357" s="2">
+        <v>49</v>
+      </c>
+      <c r="H357" s="5">
+        <v>4</v>
+      </c>
+      <c r="I357" s="5">
+        <v>9</v>
+      </c>
+      <c r="K357" s="4">
+        <f t="shared" si="13"/>
+        <v>141</v>
+      </c>
+      <c r="L357" s="4">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A358" s="6">
+        <v>357</v>
+      </c>
+      <c r="B358" s="3">
+        <v>43483</v>
+      </c>
+      <c r="C358" s="2">
+        <v>2</v>
+      </c>
+      <c r="D358" s="2">
+        <v>9</v>
+      </c>
+      <c r="E358" s="2">
+        <v>23</v>
+      </c>
+      <c r="F358" s="2">
+        <v>36</v>
+      </c>
+      <c r="G358" s="2">
+        <v>47</v>
+      </c>
+      <c r="H358" s="5">
+        <v>2</v>
+      </c>
+      <c r="I358" s="5">
+        <v>9</v>
+      </c>
+      <c r="K358" s="4">
+        <f t="shared" si="13"/>
+        <v>117</v>
+      </c>
+      <c r="L358" s="4">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A359" s="6">
+        <v>358</v>
+      </c>
+      <c r="B359" s="3">
+        <v>43490</v>
+      </c>
+      <c r="C359" s="2">
+        <v>24</v>
+      </c>
+      <c r="D359" s="2">
+        <v>25</v>
+      </c>
+      <c r="E359" s="2">
+        <v>28</v>
+      </c>
+      <c r="F359" s="2">
+        <v>35</v>
+      </c>
+      <c r="G359" s="2">
+        <v>48</v>
+      </c>
+      <c r="H359" s="5">
+        <v>4</v>
+      </c>
+      <c r="I359" s="5">
+        <v>8</v>
+      </c>
+      <c r="K359" s="4">
+        <f t="shared" si="13"/>
+        <v>160</v>
+      </c>
+      <c r="L359" s="4">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A360" s="6">
+        <v>359</v>
+      </c>
+      <c r="B360" s="3">
+        <v>43497</v>
+      </c>
+      <c r="C360" s="2">
+        <v>6</v>
+      </c>
+      <c r="D360" s="2">
+        <v>29</v>
+      </c>
+      <c r="E360" s="2">
+        <v>38</v>
+      </c>
+      <c r="F360" s="2">
+        <v>45</v>
+      </c>
+      <c r="G360" s="2">
+        <v>47</v>
+      </c>
+      <c r="H360" s="5">
+        <v>2</v>
+      </c>
+      <c r="I360" s="5">
+        <v>3</v>
+      </c>
+      <c r="K360" s="4">
+        <f t="shared" si="13"/>
+        <v>165</v>
+      </c>
+      <c r="L360" s="4">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A361" s="6">
+        <v>360</v>
+      </c>
+      <c r="B361" s="3">
+        <v>43504</v>
+      </c>
+      <c r="C361" s="2">
+        <v>5</v>
+      </c>
+      <c r="D361" s="2">
+        <v>8</v>
+      </c>
+      <c r="E361" s="2">
+        <v>21</v>
+      </c>
+      <c r="F361" s="2">
+        <v>24</v>
+      </c>
+      <c r="G361" s="2">
+        <v>26</v>
+      </c>
+      <c r="H361" s="5">
+        <v>4</v>
+      </c>
+      <c r="I361" s="5">
+        <v>5</v>
+      </c>
+      <c r="K361" s="4">
+        <f t="shared" si="13"/>
+        <v>84</v>
+      </c>
+      <c r="L361" s="4">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A362" s="6">
+        <v>361</v>
+      </c>
+      <c r="B362" s="3">
+        <v>43511</v>
+      </c>
+      <c r="C362" s="2">
+        <v>1</v>
+      </c>
+      <c r="D362" s="2">
+        <v>24</v>
+      </c>
+      <c r="E362" s="2">
+        <v>30</v>
+      </c>
+      <c r="F362" s="2">
+        <v>31</v>
+      </c>
+      <c r="G362" s="2">
+        <v>47</v>
+      </c>
+      <c r="H362" s="5">
+        <v>7</v>
+      </c>
+      <c r="I362" s="5">
+        <v>9</v>
+      </c>
+      <c r="K362" s="4">
+        <f t="shared" si="13"/>
+        <v>133</v>
+      </c>
+      <c r="L362" s="4">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A363" s="6">
+        <v>362</v>
+      </c>
+      <c r="B363" s="3">
+        <v>43518</v>
+      </c>
+      <c r="C363" s="2">
+        <v>14</v>
+      </c>
+      <c r="D363" s="2">
+        <v>16</v>
+      </c>
+      <c r="E363" s="2">
+        <v>21</v>
+      </c>
+      <c r="F363" s="2">
+        <v>25</v>
+      </c>
+      <c r="G363" s="2">
+        <v>26</v>
+      </c>
+      <c r="H363" s="5">
+        <v>8</v>
+      </c>
+      <c r="I363" s="5">
+        <v>10</v>
+      </c>
+      <c r="K363" s="4">
+        <f t="shared" si="13"/>
+        <v>102</v>
+      </c>
+      <c r="L363" s="4">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A364" s="6">
+        <v>363</v>
+      </c>
+      <c r="B364" s="3">
+        <v>43525</v>
+      </c>
+      <c r="C364" s="2">
+        <v>7</v>
+      </c>
+      <c r="D364" s="2">
+        <v>16</v>
+      </c>
+      <c r="E364" s="2">
+        <v>18</v>
+      </c>
+      <c r="F364" s="2">
+        <v>19</v>
+      </c>
+      <c r="G364" s="2">
+        <v>24</v>
+      </c>
+      <c r="H364" s="5">
+        <v>1</v>
+      </c>
+      <c r="I364" s="5">
+        <v>6</v>
+      </c>
+      <c r="K364" s="4">
+        <f t="shared" si="13"/>
+        <v>84</v>
+      </c>
+      <c r="L364" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A365" s="6">
+        <v>364</v>
+      </c>
+      <c r="B365" s="3">
+        <v>43532</v>
+      </c>
+      <c r="C365" s="2">
+        <v>4</v>
+      </c>
+      <c r="D365" s="2">
+        <v>29</v>
+      </c>
+      <c r="E365" s="2">
+        <v>30</v>
+      </c>
+      <c r="F365" s="2">
+        <v>31</v>
+      </c>
+      <c r="G365" s="2">
+        <v>45</v>
+      </c>
+      <c r="H365" s="5">
+        <v>1</v>
+      </c>
+      <c r="I365" s="5">
+        <v>7</v>
+      </c>
+      <c r="K365" s="4">
+        <f t="shared" si="13"/>
+        <v>139</v>
+      </c>
+      <c r="L365" s="4">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A366" s="6">
+        <v>365</v>
+      </c>
+      <c r="B366" s="3">
+        <v>43539</v>
+      </c>
+      <c r="C366" s="2">
+        <v>1</v>
+      </c>
+      <c r="D366" s="2">
+        <v>2</v>
+      </c>
+      <c r="E366" s="2">
+        <v>11</v>
+      </c>
+      <c r="F366" s="2">
+        <v>19</v>
+      </c>
+      <c r="G366" s="2">
+        <v>47</v>
+      </c>
+      <c r="H366" s="5">
+        <v>2</v>
+      </c>
+      <c r="I366" s="5">
+        <v>7</v>
+      </c>
+      <c r="K366" s="4">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="L366" s="4">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A367" s="6">
+        <v>366</v>
+      </c>
+      <c r="B367" s="3">
+        <v>43546</v>
+      </c>
+      <c r="C367" s="2">
+        <v>15</v>
+      </c>
+      <c r="D367" s="2">
+        <v>20</v>
+      </c>
+      <c r="E367" s="2">
+        <v>24</v>
+      </c>
+      <c r="F367" s="2">
+        <v>44</v>
+      </c>
+      <c r="G367" s="2">
+        <v>49</v>
+      </c>
+      <c r="H367" s="5">
+        <v>7</v>
+      </c>
+      <c r="I367" s="5">
+        <v>9</v>
+      </c>
+      <c r="K367" s="4">
+        <f t="shared" si="13"/>
+        <v>152</v>
+      </c>
+      <c r="L367" s="4">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A368" s="6">
+        <v>367</v>
+      </c>
+      <c r="B368" s="3">
+        <v>43553</v>
+      </c>
+      <c r="C368" s="2">
+        <v>4</v>
+      </c>
+      <c r="D368" s="2">
+        <v>9</v>
+      </c>
+      <c r="E368" s="2">
+        <v>15</v>
+      </c>
+      <c r="F368" s="2">
+        <v>24</v>
+      </c>
+      <c r="G368" s="2">
+        <v>42</v>
+      </c>
+      <c r="H368" s="5">
+        <v>8</v>
+      </c>
+      <c r="I368" s="5">
+        <v>9</v>
+      </c>
+      <c r="K368" s="4">
+        <f t="shared" si="13"/>
+        <v>94</v>
+      </c>
+      <c r="L368" s="4">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A369" s="6">
+        <v>368</v>
+      </c>
+      <c r="B369" s="3">
+        <v>43560</v>
+      </c>
+      <c r="C369" s="2">
+        <v>22</v>
+      </c>
+      <c r="D369" s="2">
+        <v>31</v>
+      </c>
+      <c r="E369" s="2">
+        <v>43</v>
+      </c>
+      <c r="F369" s="2">
+        <v>44</v>
+      </c>
+      <c r="G369" s="2">
+        <v>50</v>
+      </c>
+      <c r="H369" s="5">
+        <v>1</v>
+      </c>
+      <c r="I369" s="5">
+        <v>9</v>
+      </c>
+      <c r="K369" s="4">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+      <c r="L369" s="4">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A370" s="6">
+        <v>369</v>
+      </c>
+      <c r="B370" s="3">
+        <v>43567</v>
+      </c>
+      <c r="C370" s="2">
+        <v>14</v>
+      </c>
+      <c r="D370" s="2">
+        <v>16</v>
+      </c>
+      <c r="E370" s="2">
+        <v>21</v>
+      </c>
+      <c r="F370" s="2">
+        <v>30</v>
+      </c>
+      <c r="G370" s="2">
+        <v>37</v>
+      </c>
+      <c r="H370" s="5">
+        <v>4</v>
+      </c>
+      <c r="I370" s="5">
+        <v>8</v>
+      </c>
+      <c r="K370" s="4">
+        <f t="shared" si="13"/>
+        <v>118</v>
+      </c>
+      <c r="L370" s="4">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A371" s="6">
+        <v>370</v>
+      </c>
+      <c r="B371" s="3">
+        <v>43574</v>
+      </c>
+      <c r="C371" s="2">
+        <v>18</v>
+      </c>
+      <c r="D371" s="2">
+        <v>21</v>
+      </c>
+      <c r="E371" s="2">
+        <v>37</v>
+      </c>
+      <c r="F371" s="2">
+        <v>43</v>
+      </c>
+      <c r="G371" s="2">
+        <v>47</v>
+      </c>
+      <c r="H371" s="5">
+        <v>1</v>
+      </c>
+      <c r="I371" s="5">
+        <v>3</v>
+      </c>
+      <c r="K371" s="4">
+        <f t="shared" si="13"/>
+        <v>166</v>
+      </c>
+      <c r="L371" s="4">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A372" s="6">
+        <v>371</v>
+      </c>
+      <c r="B372" s="3">
+        <v>43581</v>
+      </c>
+      <c r="C372" s="2">
+        <v>1</v>
+      </c>
+      <c r="D372" s="2">
+        <v>6</v>
+      </c>
+      <c r="E372" s="2">
+        <v>11</v>
+      </c>
+      <c r="F372" s="2">
+        <v>17</v>
+      </c>
+      <c r="G372" s="2">
+        <v>38</v>
+      </c>
+      <c r="H372" s="5">
+        <v>4</v>
+      </c>
+      <c r="I372" s="5">
+        <v>8</v>
+      </c>
+      <c r="K372" s="4">
+        <f t="shared" si="13"/>
+        <v>73</v>
+      </c>
+      <c r="L372" s="4">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A373" s="6">
+        <v>372</v>
+      </c>
+      <c r="B373" s="3">
+        <v>43588</v>
+      </c>
+      <c r="C373" s="2">
+        <v>3</v>
+      </c>
+      <c r="D373" s="2">
+        <v>9</v>
+      </c>
+      <c r="E373" s="2">
+        <v>10</v>
+      </c>
+      <c r="F373" s="2">
+        <v>19</v>
+      </c>
+      <c r="G373" s="2">
+        <v>42</v>
+      </c>
+      <c r="H373" s="5">
+        <v>1</v>
+      </c>
+      <c r="I373" s="5">
+        <v>7</v>
+      </c>
+      <c r="K373" s="4">
+        <f t="shared" si="13"/>
+        <v>83</v>
+      </c>
+      <c r="L373" s="4">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A374" s="6">
+        <v>373</v>
+      </c>
+      <c r="B374" s="3">
+        <v>43595</v>
+      </c>
+      <c r="C374" s="2">
+        <v>5</v>
+      </c>
+      <c r="D374" s="2">
+        <v>7</v>
+      </c>
+      <c r="E374" s="2">
+        <v>15</v>
+      </c>
+      <c r="F374" s="2">
+        <v>19</v>
+      </c>
+      <c r="G374" s="2">
+        <v>29</v>
+      </c>
+      <c r="H374" s="5">
+        <v>3</v>
+      </c>
+      <c r="I374" s="5">
+        <v>8</v>
+      </c>
+      <c r="K374" s="4">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="L374" s="4">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A375" s="6">
+        <v>374</v>
+      </c>
+      <c r="B375" s="3">
+        <v>43602</v>
+      </c>
+      <c r="C375" s="2">
+        <v>20</v>
+      </c>
+      <c r="D375" s="2">
+        <v>27</v>
+      </c>
+      <c r="E375" s="2">
+        <v>33</v>
+      </c>
+      <c r="F375" s="2">
+        <v>35</v>
+      </c>
+      <c r="G375" s="2">
+        <v>46</v>
+      </c>
+      <c r="H375" s="5">
+        <v>5</v>
+      </c>
+      <c r="I375" s="5">
+        <v>9</v>
+      </c>
+      <c r="K375" s="4">
+        <f>SUM(C375:G375)</f>
+        <v>161</v>
+      </c>
+      <c r="L375" s="4">
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
